--- a/dataset/changes_to_BS_MP_crossings.xlsx
+++ b/dataset/changes_to_BS_MP_crossings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/ucapikc_ucl_ac_uk/Documents/PhD/Project/2_Automated_BS_and_MP_Identification_at_Saturn/4-Dissemination/2-Publications/BS_MP_Crossings_Cassini/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="794" documentId="8_{4470F937-D516-43AE-A661-E04728A3F347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57AD5011-4809-452D-BBFC-B9F776F98AF8}"/>
+  <xr:revisionPtr revIDLastSave="797" documentId="8_{4470F937-D516-43AE-A661-E04728A3F347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B7727D3-3F70-477F-906E-3C9AAED15305}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{169FDD74-68EB-4CD5-BBDD-497B2FB9C54B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="26">
   <si>
     <t>Year</t>
   </si>
@@ -726,11 +726,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCBC670D-FDFE-4233-86F0-24576FA0422C}">
-  <dimension ref="A1:J726"/>
+  <dimension ref="A1:J725"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="127" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A713" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D723" sqref="D723"/>
+      <pane ySplit="1" topLeftCell="A332" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C342" sqref="C342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11559,16 +11559,16 @@
         <v>318</v>
       </c>
       <c r="C339">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D339">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E339" t="s">
         <v>9</v>
       </c>
       <c r="F339" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G339">
         <v>0</v>
@@ -11585,16 +11585,16 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B340">
-        <v>318</v>
+        <v>8</v>
       </c>
       <c r="C340">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D340">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E340" t="s">
         <v>9</v>
@@ -11626,13 +11626,13 @@
         <v>9</v>
       </c>
       <c r="D341">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E341" t="s">
         <v>9</v>
       </c>
       <c r="F341" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G341">
         <v>0</v>
@@ -11652,13 +11652,13 @@
         <v>2009</v>
       </c>
       <c r="B342">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C342">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D342">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E342" t="s">
         <v>9</v>
@@ -11667,16 +11667,16 @@
         <v>11</v>
       </c>
       <c r="G342">
-        <v>0</v>
+        <v>12.93</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>-10.08</v>
       </c>
       <c r="I342">
-        <v>0</v>
+        <v>-8.2799999999999994</v>
       </c>
       <c r="J342" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.3">
@@ -11684,13 +11684,13 @@
         <v>2009</v>
       </c>
       <c r="B343">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C343">
         <v>19</v>
       </c>
       <c r="D343">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E343" t="s">
         <v>9</v>
@@ -11699,13 +11699,13 @@
         <v>11</v>
       </c>
       <c r="G343">
-        <v>12.93</v>
+        <v>6.19</v>
       </c>
       <c r="H343">
-        <v>-10.08</v>
+        <v>4.55</v>
       </c>
       <c r="I343">
-        <v>-8.2799999999999994</v>
+        <v>15.95</v>
       </c>
       <c r="J343" t="s">
         <v>17</v>
@@ -11716,31 +11716,31 @@
         <v>2009</v>
       </c>
       <c r="B344">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C344">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D344">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E344" t="s">
         <v>9</v>
       </c>
       <c r="F344" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G344">
-        <v>6.19</v>
+        <v>0</v>
       </c>
       <c r="H344">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="I344">
-        <v>15.95</v>
+        <v>0</v>
       </c>
       <c r="J344" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.3">
@@ -11751,16 +11751,16 @@
         <v>85</v>
       </c>
       <c r="C345">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D345">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E345" t="s">
         <v>9</v>
       </c>
       <c r="F345" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G345">
         <v>0</v>
@@ -11780,13 +11780,13 @@
         <v>2009</v>
       </c>
       <c r="B346">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C346">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D346">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E346" t="s">
         <v>9</v>
@@ -11795,16 +11795,16 @@
         <v>11</v>
       </c>
       <c r="G346">
-        <v>0</v>
+        <v>6.63</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>6.67</v>
       </c>
       <c r="I346">
-        <v>0</v>
+        <v>17.61</v>
       </c>
       <c r="J346" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.3">
@@ -11812,28 +11812,28 @@
         <v>2009</v>
       </c>
       <c r="B347">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C347">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D347">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="E347" t="s">
         <v>9</v>
       </c>
       <c r="F347" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G347">
-        <v>6.63</v>
+        <v>16.53</v>
       </c>
       <c r="H347">
-        <v>6.67</v>
+        <v>-1.84</v>
       </c>
       <c r="I347">
-        <v>17.61</v>
+        <v>12.85</v>
       </c>
       <c r="J347" t="s">
         <v>17</v>
@@ -11844,13 +11844,13 @@
         <v>2009</v>
       </c>
       <c r="B348">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C348">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D348">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E348" t="s">
         <v>9</v>
@@ -11859,13 +11859,13 @@
         <v>10</v>
       </c>
       <c r="G348">
-        <v>16.53</v>
+        <v>13.57</v>
       </c>
       <c r="H348">
-        <v>-1.84</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="I348">
-        <v>12.85</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="J348" t="s">
         <v>17</v>
@@ -11876,31 +11876,31 @@
         <v>2009</v>
       </c>
       <c r="B349">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C349">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D349">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E349" t="s">
         <v>9</v>
       </c>
       <c r="F349" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G349">
-        <v>13.57</v>
+        <v>0</v>
       </c>
       <c r="H349">
-        <v>2.5499999999999998</v>
+        <v>0</v>
       </c>
       <c r="I349">
-        <v>17.190000000000001</v>
+        <v>0</v>
       </c>
       <c r="J349" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
@@ -11914,13 +11914,13 @@
         <v>18</v>
       </c>
       <c r="D350">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E350" t="s">
         <v>9</v>
       </c>
       <c r="F350" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G350">
         <v>0</v>
@@ -11940,13 +11940,13 @@
         <v>2009</v>
       </c>
       <c r="B351">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C351">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D351">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E351" t="s">
         <v>9</v>
@@ -11975,16 +11975,16 @@
         <v>134</v>
       </c>
       <c r="C352">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D352">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E352" t="s">
         <v>9</v>
       </c>
       <c r="F352" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G352">
         <v>0</v>
@@ -12007,28 +12007,28 @@
         <v>134</v>
       </c>
       <c r="C353">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D353">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E353" t="s">
         <v>9</v>
       </c>
       <c r="F353" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G353">
-        <v>0</v>
+        <v>12.3</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>4.87</v>
       </c>
       <c r="I353">
-        <v>0</v>
+        <v>19.22</v>
       </c>
       <c r="J353" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
@@ -12036,28 +12036,28 @@
         <v>2009</v>
       </c>
       <c r="B354">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C354">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D354">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E354" t="s">
         <v>9</v>
       </c>
       <c r="F354" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G354">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="H354">
-        <v>4.87</v>
+        <v>0</v>
       </c>
       <c r="I354">
-        <v>19.22</v>
+        <v>0</v>
       </c>
       <c r="J354" t="s">
         <v>17</v>
@@ -12071,16 +12071,16 @@
         <v>135</v>
       </c>
       <c r="C355">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D355">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E355" t="s">
         <v>9</v>
       </c>
       <c r="F355" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G355">
         <v>0</v>
@@ -12092,7 +12092,7 @@
         <v>0</v>
       </c>
       <c r="J355" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.3">
@@ -12103,16 +12103,16 @@
         <v>135</v>
       </c>
       <c r="C356">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D356">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E356" t="s">
         <v>9</v>
       </c>
       <c r="F356" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G356">
         <v>0</v>
@@ -12132,31 +12132,31 @@
         <v>2009</v>
       </c>
       <c r="B357">
-        <v>135</v>
+        <v>242</v>
       </c>
       <c r="C357">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D357">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E357" t="s">
         <v>9</v>
       </c>
       <c r="F357" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G357">
-        <v>0</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>26.15</v>
       </c>
       <c r="I357">
-        <v>0</v>
+        <v>5.66</v>
       </c>
       <c r="J357" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.3">
@@ -12164,13 +12164,13 @@
         <v>2009</v>
       </c>
       <c r="B358">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="C358">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D358">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E358" t="s">
         <v>9</v>
@@ -12179,16 +12179,16 @@
         <v>10</v>
       </c>
       <c r="G358">
-        <v>8.2100000000000009</v>
+        <v>0</v>
       </c>
       <c r="H358">
-        <v>26.15</v>
+        <v>0</v>
       </c>
       <c r="I358">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="J358" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.3">
@@ -12199,16 +12199,16 @@
         <v>266</v>
       </c>
       <c r="C359">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D359">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E359" t="s">
         <v>9</v>
       </c>
       <c r="F359" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G359">
         <v>0</v>
@@ -12228,19 +12228,19 @@
         <v>2009</v>
       </c>
       <c r="B360">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C360">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D360">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E360" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F360" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G360">
         <v>0</v>
@@ -12263,16 +12263,16 @@
         <v>267</v>
       </c>
       <c r="C361">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D361">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E361" t="s">
         <v>12</v>
       </c>
       <c r="F361" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G361">
         <v>0</v>
@@ -12295,16 +12295,16 @@
         <v>267</v>
       </c>
       <c r="C362">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D362">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E362" t="s">
         <v>12</v>
       </c>
       <c r="F362" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G362">
         <v>0</v>
@@ -12327,16 +12327,16 @@
         <v>267</v>
       </c>
       <c r="C363">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D363">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E363" t="s">
         <v>12</v>
       </c>
       <c r="F363" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G363">
         <v>0</v>
@@ -12356,19 +12356,19 @@
         <v>2009</v>
       </c>
       <c r="B364">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C364">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D364">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E364" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F364" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G364">
         <v>0</v>
@@ -12380,7 +12380,7 @@
         <v>0</v>
       </c>
       <c r="J364" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.3">
@@ -12388,13 +12388,13 @@
         <v>2009</v>
       </c>
       <c r="B365">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="C365">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D365">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E365" t="s">
         <v>9</v>
@@ -12412,7 +12412,7 @@
         <v>0</v>
       </c>
       <c r="J365" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.3">
@@ -12420,19 +12420,19 @@
         <v>2009</v>
       </c>
       <c r="B366">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C366">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D366">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E366" t="s">
         <v>9</v>
       </c>
       <c r="F366" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G366">
         <v>0</v>
@@ -12455,16 +12455,16 @@
         <v>292</v>
       </c>
       <c r="C367">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D367">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E367" t="s">
         <v>9</v>
       </c>
       <c r="F367" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G367">
         <v>0</v>
@@ -12487,16 +12487,16 @@
         <v>292</v>
       </c>
       <c r="C368">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D368">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E368" t="s">
         <v>9</v>
       </c>
       <c r="F368" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G368">
         <v>0</v>
@@ -12516,13 +12516,13 @@
         <v>2009</v>
       </c>
       <c r="B369">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C369">
         <v>22</v>
       </c>
       <c r="D369">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E369" t="s">
         <v>9</v>
@@ -12551,7 +12551,7 @@
         <v>296</v>
       </c>
       <c r="C370">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D370">
         <v>30</v>
@@ -12560,7 +12560,7 @@
         <v>9</v>
       </c>
       <c r="F370" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G370">
         <v>0</v>
@@ -12580,19 +12580,19 @@
         <v>2009</v>
       </c>
       <c r="B371">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C371">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D371">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E371" t="s">
         <v>9</v>
       </c>
       <c r="F371" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G371">
         <v>0</v>
@@ -12618,13 +12618,13 @@
         <v>1</v>
       </c>
       <c r="D372">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E372" t="s">
         <v>9</v>
       </c>
       <c r="F372" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G372">
         <v>0</v>
@@ -12644,19 +12644,19 @@
         <v>2009</v>
       </c>
       <c r="B373">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="C373">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D373">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E373" t="s">
         <v>9</v>
       </c>
       <c r="F373" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G373">
         <v>0</v>
@@ -12668,7 +12668,7 @@
         <v>0</v>
       </c>
       <c r="J373" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
@@ -12679,10 +12679,10 @@
         <v>313</v>
       </c>
       <c r="C374">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D374">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E374" t="s">
         <v>9</v>
@@ -12700,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="J374" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.3">
@@ -12711,7 +12711,7 @@
         <v>313</v>
       </c>
       <c r="C375">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D375">
         <v>20</v>
@@ -12720,7 +12720,7 @@
         <v>9</v>
       </c>
       <c r="F375" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G375">
         <v>0</v>
@@ -12740,13 +12740,13 @@
         <v>2009</v>
       </c>
       <c r="B376">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C376">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D376">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E376" t="s">
         <v>9</v>
@@ -12778,13 +12778,13 @@
         <v>5</v>
       </c>
       <c r="D377">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E377" t="s">
         <v>9</v>
       </c>
       <c r="F377" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G377">
         <v>0</v>
@@ -12804,19 +12804,19 @@
         <v>2009</v>
       </c>
       <c r="B378">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C378">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D378">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E378" t="s">
         <v>9</v>
       </c>
       <c r="F378" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G378">
         <v>0</v>
@@ -12842,13 +12842,13 @@
         <v>6</v>
       </c>
       <c r="D379">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E379" t="s">
         <v>9</v>
       </c>
       <c r="F379" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G379">
         <v>0</v>
@@ -12868,19 +12868,19 @@
         <v>2009</v>
       </c>
       <c r="B380">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="C380">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D380">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E380" t="s">
         <v>9</v>
       </c>
       <c r="F380" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G380">
         <v>0</v>
@@ -12903,16 +12903,16 @@
         <v>355</v>
       </c>
       <c r="C381">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D381">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E381" t="s">
         <v>9</v>
       </c>
       <c r="F381" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G381">
         <v>0</v>
@@ -12929,22 +12929,22 @@
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B382">
-        <v>355</v>
+        <v>3</v>
       </c>
       <c r="C382">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D382">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E382" t="s">
         <v>9</v>
       </c>
       <c r="F382" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G382">
         <v>0</v>
@@ -12970,13 +12970,13 @@
         <v>6</v>
       </c>
       <c r="D383">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E383" t="s">
         <v>9</v>
       </c>
       <c r="F383" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G383">
         <v>0</v>
@@ -12999,7 +12999,7 @@
         <v>3</v>
       </c>
       <c r="C384">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D384">
         <v>30</v>
@@ -13031,16 +13031,16 @@
         <v>3</v>
       </c>
       <c r="C385">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D385">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E385" t="s">
         <v>9</v>
       </c>
       <c r="F385" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G385">
         <v>0</v>
@@ -13060,13 +13060,13 @@
         <v>2010</v>
       </c>
       <c r="B386">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C386">
         <v>12</v>
       </c>
       <c r="D386">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E386" t="s">
         <v>9</v>
@@ -13098,13 +13098,13 @@
         <v>12</v>
       </c>
       <c r="D387">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E387" t="s">
         <v>9</v>
       </c>
       <c r="F387" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G387">
         <v>0</v>
@@ -13124,19 +13124,19 @@
         <v>2010</v>
       </c>
       <c r="B388">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C388">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D388">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E388" t="s">
         <v>9</v>
       </c>
       <c r="F388" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G388">
         <v>0</v>
@@ -13159,16 +13159,16 @@
         <v>32</v>
       </c>
       <c r="C389">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D389">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E389" t="s">
         <v>9</v>
       </c>
       <c r="F389" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G389">
         <v>0</v>
@@ -13191,16 +13191,16 @@
         <v>32</v>
       </c>
       <c r="C390">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D390">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E390" t="s">
         <v>9</v>
       </c>
       <c r="F390" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G390">
         <v>0</v>
@@ -13223,16 +13223,16 @@
         <v>32</v>
       </c>
       <c r="C391">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D391">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E391" t="s">
         <v>9</v>
       </c>
       <c r="F391" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G391">
         <v>0</v>
@@ -13252,13 +13252,13 @@
         <v>2010</v>
       </c>
       <c r="B392">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C392">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D392">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E392" t="s">
         <v>9</v>
@@ -13267,16 +13267,16 @@
         <v>11</v>
       </c>
       <c r="G392">
-        <v>0</v>
+        <v>-6.87</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>38.39</v>
       </c>
       <c r="I392">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="J392" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.3">
@@ -13284,10 +13284,10 @@
         <v>2010</v>
       </c>
       <c r="B393">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C393">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D393">
         <v>45</v>
@@ -13296,19 +13296,19 @@
         <v>9</v>
       </c>
       <c r="F393" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G393">
-        <v>-6.87</v>
+        <v>0</v>
       </c>
       <c r="H393">
-        <v>38.39</v>
+        <v>0</v>
       </c>
       <c r="I393">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="J393" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.3">
@@ -13319,16 +13319,16 @@
         <v>35</v>
       </c>
       <c r="C394">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D394">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E394" t="s">
         <v>9</v>
       </c>
       <c r="F394" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G394">
         <v>0</v>
@@ -13348,19 +13348,19 @@
         <v>2010</v>
       </c>
       <c r="B395">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C395">
         <v>22</v>
       </c>
       <c r="D395">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E395" t="s">
         <v>9</v>
       </c>
       <c r="F395" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G395">
         <v>0</v>
@@ -13383,7 +13383,7 @@
         <v>49</v>
       </c>
       <c r="C396">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D396">
         <v>0</v>
@@ -13392,7 +13392,7 @@
         <v>9</v>
       </c>
       <c r="F396" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G396">
         <v>0</v>
@@ -13412,10 +13412,10 @@
         <v>2010</v>
       </c>
       <c r="B397">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C397">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D397">
         <v>0</v>
@@ -13424,7 +13424,7 @@
         <v>9</v>
       </c>
       <c r="F397" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G397">
         <v>0</v>
@@ -13447,7 +13447,7 @@
         <v>70</v>
       </c>
       <c r="C398">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D398">
         <v>0</v>
@@ -13456,7 +13456,7 @@
         <v>9</v>
       </c>
       <c r="F398" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G398">
         <v>0</v>
@@ -13476,31 +13476,31 @@
         <v>2010</v>
       </c>
       <c r="B399">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C399">
         <v>13</v>
       </c>
       <c r="D399">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E399" t="s">
         <v>9</v>
       </c>
       <c r="F399" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G399">
-        <v>0</v>
+        <v>-13.27</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>37.42</v>
       </c>
       <c r="I399">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J399" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.3">
@@ -13508,28 +13508,28 @@
         <v>2010</v>
       </c>
       <c r="B400">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C400">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D400">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E400" t="s">
         <v>9</v>
       </c>
       <c r="F400" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G400">
-        <v>-13.27</v>
+        <v>-2.93</v>
       </c>
       <c r="H400">
-        <v>37.42</v>
+        <v>36.32</v>
       </c>
       <c r="I400">
-        <v>1.02</v>
+        <v>0.4</v>
       </c>
       <c r="J400" t="s">
         <v>17</v>
@@ -13543,28 +13543,28 @@
         <v>85</v>
       </c>
       <c r="C401">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D401">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E401" t="s">
         <v>9</v>
       </c>
       <c r="F401" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G401">
-        <v>-2.93</v>
+        <v>0</v>
       </c>
       <c r="H401">
-        <v>36.32</v>
+        <v>0</v>
       </c>
       <c r="I401">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J401" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.3">
@@ -13575,16 +13575,16 @@
         <v>85</v>
       </c>
       <c r="C402">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D402">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E402" t="s">
         <v>9</v>
       </c>
       <c r="F402" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G402">
         <v>0</v>
@@ -13604,19 +13604,19 @@
         <v>2010</v>
       </c>
       <c r="B403">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C403">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D403">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E403" t="s">
         <v>9</v>
       </c>
       <c r="F403" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G403">
         <v>0</v>
@@ -13639,16 +13639,16 @@
         <v>88</v>
       </c>
       <c r="C404">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D404">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E404" t="s">
         <v>9</v>
       </c>
       <c r="F404" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G404">
         <v>0</v>
@@ -13668,13 +13668,13 @@
         <v>2010</v>
       </c>
       <c r="B405">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C405">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D405">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E405" t="s">
         <v>9</v>
@@ -13703,16 +13703,16 @@
         <v>101</v>
       </c>
       <c r="C406">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D406">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E406" t="s">
         <v>9</v>
       </c>
       <c r="F406" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G406">
         <v>0</v>
@@ -13738,13 +13738,13 @@
         <v>11</v>
       </c>
       <c r="D407">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="E407" t="s">
         <v>9</v>
       </c>
       <c r="F407" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G407">
         <v>0</v>
@@ -13767,16 +13767,16 @@
         <v>101</v>
       </c>
       <c r="C408">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D408">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="E408" t="s">
         <v>9</v>
       </c>
       <c r="F408" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G408">
         <v>0</v>
@@ -13802,13 +13802,13 @@
         <v>12</v>
       </c>
       <c r="D409">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E409" t="s">
         <v>9</v>
       </c>
       <c r="F409" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G409">
         <v>0</v>
@@ -13831,16 +13831,16 @@
         <v>101</v>
       </c>
       <c r="C410">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D410">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E410" t="s">
         <v>9</v>
       </c>
       <c r="F410" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G410">
         <v>0</v>
@@ -13860,19 +13860,19 @@
         <v>2010</v>
       </c>
       <c r="B411">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C411">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D411">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E411" t="s">
         <v>9</v>
       </c>
       <c r="F411" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G411">
         <v>0</v>
@@ -13895,16 +13895,16 @@
         <v>105</v>
       </c>
       <c r="C412">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D412">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E412" t="s">
         <v>9</v>
       </c>
       <c r="F412" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G412">
         <v>0</v>
@@ -13924,19 +13924,19 @@
         <v>2010</v>
       </c>
       <c r="B413">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C413">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D413">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E413" t="s">
         <v>9</v>
       </c>
       <c r="F413" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G413">
         <v>0</v>
@@ -13959,16 +13959,16 @@
         <v>106</v>
       </c>
       <c r="C414">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D414">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E414" t="s">
         <v>9</v>
       </c>
       <c r="F414" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G414">
         <v>0</v>
@@ -13988,19 +13988,19 @@
         <v>2010</v>
       </c>
       <c r="B415">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="C415">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D415">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E415" t="s">
         <v>9</v>
       </c>
       <c r="F415" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G415">
         <v>0</v>
@@ -14023,16 +14023,16 @@
         <v>162</v>
       </c>
       <c r="C416">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D416">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E416" t="s">
         <v>9</v>
       </c>
       <c r="F416" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G416">
         <v>0</v>
@@ -14055,16 +14055,16 @@
         <v>162</v>
       </c>
       <c r="C417">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D417">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E417" t="s">
         <v>9</v>
       </c>
       <c r="F417" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G417">
         <v>0</v>
@@ -14084,19 +14084,19 @@
         <v>2010</v>
       </c>
       <c r="B418">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C418">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D418">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E418" t="s">
         <v>9</v>
       </c>
       <c r="F418" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G418">
         <v>0</v>
@@ -14116,13 +14116,13 @@
         <v>2010</v>
       </c>
       <c r="B419">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C419">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D419">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E419" t="s">
         <v>9</v>
@@ -14151,16 +14151,16 @@
         <v>165</v>
       </c>
       <c r="C420">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D420">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E420" t="s">
         <v>9</v>
       </c>
       <c r="F420" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G420">
         <v>0</v>
@@ -14183,16 +14183,16 @@
         <v>165</v>
       </c>
       <c r="C421">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D421">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E421" t="s">
         <v>9</v>
       </c>
       <c r="F421" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G421">
         <v>0</v>
@@ -14215,16 +14215,16 @@
         <v>165</v>
       </c>
       <c r="C422">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D422">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E422" t="s">
         <v>9</v>
       </c>
       <c r="F422" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G422">
         <v>0</v>
@@ -14244,13 +14244,13 @@
         <v>2010</v>
       </c>
       <c r="B423">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C423">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D423">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E423" t="s">
         <v>9</v>
@@ -14279,16 +14279,16 @@
         <v>177</v>
       </c>
       <c r="C424">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D424">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E424" t="s">
         <v>9</v>
       </c>
       <c r="F424" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G424">
         <v>0</v>
@@ -14311,7 +14311,7 @@
         <v>177</v>
       </c>
       <c r="C425">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D425">
         <v>30</v>
@@ -14320,7 +14320,7 @@
         <v>9</v>
       </c>
       <c r="F425" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G425">
         <v>0</v>
@@ -14346,13 +14346,13 @@
         <v>9</v>
       </c>
       <c r="D426">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E426" t="s">
         <v>9</v>
       </c>
       <c r="F426" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G426">
         <v>0</v>
@@ -14378,13 +14378,13 @@
         <v>9</v>
       </c>
       <c r="D427">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E427" t="s">
         <v>9</v>
       </c>
       <c r="F427" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G427">
         <v>0</v>
@@ -14407,16 +14407,16 @@
         <v>177</v>
       </c>
       <c r="C428">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D428">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E428" t="s">
         <v>9</v>
       </c>
       <c r="F428" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G428">
         <v>0</v>
@@ -14439,28 +14439,28 @@
         <v>177</v>
       </c>
       <c r="C429">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D429">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E429" t="s">
         <v>9</v>
       </c>
       <c r="F429" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G429">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>37.07</v>
       </c>
       <c r="I429">
-        <v>0</v>
+        <v>-5.97</v>
       </c>
       <c r="J429" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.3">
@@ -14468,13 +14468,13 @@
         <v>2010</v>
       </c>
       <c r="B430">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C430">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D430">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="E430" t="s">
         <v>9</v>
@@ -14483,16 +14483,16 @@
         <v>11</v>
       </c>
       <c r="G430">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="H430">
-        <v>37.07</v>
+        <v>0</v>
       </c>
       <c r="I430">
-        <v>-5.97</v>
+        <v>0</v>
       </c>
       <c r="J430" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.3">
@@ -14503,16 +14503,16 @@
         <v>178</v>
       </c>
       <c r="C431">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D431">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E431" t="s">
         <v>9</v>
       </c>
       <c r="F431" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G431">
         <v>0</v>
@@ -14535,16 +14535,16 @@
         <v>178</v>
       </c>
       <c r="C432">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D432">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E432" t="s">
         <v>9</v>
       </c>
       <c r="F432" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G432">
         <v>0</v>
@@ -14570,13 +14570,13 @@
         <v>5</v>
       </c>
       <c r="D433">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E433" t="s">
         <v>9</v>
       </c>
       <c r="F433" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G433">
         <v>0</v>
@@ -14596,19 +14596,19 @@
         <v>2010</v>
       </c>
       <c r="B434">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C434">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D434">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E434" t="s">
         <v>9</v>
       </c>
       <c r="F434" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G434">
         <v>0</v>
@@ -14631,16 +14631,16 @@
         <v>180</v>
       </c>
       <c r="C435">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D435">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E435" t="s">
         <v>9</v>
       </c>
       <c r="F435" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G435">
         <v>0</v>
@@ -14663,16 +14663,16 @@
         <v>180</v>
       </c>
       <c r="C436">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D436">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E436" t="s">
         <v>9</v>
       </c>
       <c r="F436" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G436">
         <v>0</v>
@@ -14698,13 +14698,13 @@
         <v>2</v>
       </c>
       <c r="D437">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E437" t="s">
         <v>9</v>
       </c>
       <c r="F437" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G437">
         <v>0</v>
@@ -14727,16 +14727,16 @@
         <v>180</v>
       </c>
       <c r="C438">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D438">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E438" t="s">
         <v>9</v>
       </c>
       <c r="F438" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G438">
         <v>0</v>
@@ -14759,7 +14759,7 @@
         <v>180</v>
       </c>
       <c r="C439">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D439">
         <v>30</v>
@@ -14768,7 +14768,7 @@
         <v>9</v>
       </c>
       <c r="F439" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G439">
         <v>0</v>
@@ -14788,10 +14788,10 @@
         <v>2010</v>
       </c>
       <c r="B440">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C440">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D440">
         <v>30</v>
@@ -14800,7 +14800,7 @@
         <v>9</v>
       </c>
       <c r="F440" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G440">
         <v>0</v>
@@ -14812,7 +14812,7 @@
         <v>0</v>
       </c>
       <c r="J440" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.3">
@@ -14823,10 +14823,10 @@
         <v>181</v>
       </c>
       <c r="C441">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D441">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E441" t="s">
         <v>9</v>
@@ -14852,13 +14852,13 @@
         <v>2010</v>
       </c>
       <c r="B442">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C442">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D442">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E442" t="s">
         <v>9</v>
@@ -14876,7 +14876,7 @@
         <v>0</v>
       </c>
       <c r="J442" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.3">
@@ -14890,13 +14890,13 @@
         <v>20</v>
       </c>
       <c r="D443">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E443" t="s">
         <v>9</v>
       </c>
       <c r="F443" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G443">
         <v>0</v>
@@ -14916,13 +14916,13 @@
         <v>2010</v>
       </c>
       <c r="B444">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C444">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D444">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E444" t="s">
         <v>9</v>
@@ -14954,13 +14954,13 @@
         <v>4</v>
       </c>
       <c r="D445">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E445" t="s">
         <v>9</v>
       </c>
       <c r="F445" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G445">
         <v>0</v>
@@ -14980,19 +14980,19 @@
         <v>2010</v>
       </c>
       <c r="B446">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C446">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D446">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="E446" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F446" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G446">
         <v>0</v>
@@ -15018,13 +15018,13 @@
         <v>2</v>
       </c>
       <c r="D447">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E447" t="s">
         <v>12</v>
       </c>
       <c r="F447" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G447">
         <v>0</v>
@@ -15050,13 +15050,13 @@
         <v>2</v>
       </c>
       <c r="D448">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E448" t="s">
         <v>12</v>
       </c>
       <c r="F448" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G448">
         <v>0</v>
@@ -15079,16 +15079,16 @@
         <v>192</v>
       </c>
       <c r="C449">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D449">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E449" t="s">
         <v>12</v>
       </c>
       <c r="F449" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G449">
         <v>0</v>
@@ -15114,13 +15114,13 @@
         <v>3</v>
       </c>
       <c r="D450">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E450" t="s">
         <v>12</v>
       </c>
       <c r="F450" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G450">
         <v>0</v>
@@ -15146,13 +15146,13 @@
         <v>3</v>
       </c>
       <c r="D451">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E451" t="s">
         <v>12</v>
       </c>
       <c r="F451" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G451">
         <v>0</v>
@@ -15172,16 +15172,16 @@
         <v>2010</v>
       </c>
       <c r="B452">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C452">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D452">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E452" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F452" t="s">
         <v>11</v>
@@ -15210,13 +15210,13 @@
         <v>6</v>
       </c>
       <c r="D453">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E453" t="s">
         <v>9</v>
       </c>
       <c r="F453" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G453">
         <v>0</v>
@@ -15236,19 +15236,19 @@
         <v>2010</v>
       </c>
       <c r="B454">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C454">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D454">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E454" t="s">
         <v>9</v>
       </c>
       <c r="F454" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G454">
         <v>0</v>
@@ -15271,16 +15271,16 @@
         <v>195</v>
       </c>
       <c r="C455">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D455">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E455" t="s">
         <v>9</v>
       </c>
       <c r="F455" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G455">
         <v>0</v>
@@ -15300,19 +15300,19 @@
         <v>2010</v>
       </c>
       <c r="B456">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C456">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D456">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E456" t="s">
         <v>9</v>
       </c>
       <c r="F456" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G456">
         <v>0</v>
@@ -15338,13 +15338,13 @@
         <v>7</v>
       </c>
       <c r="D457">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E457" t="s">
         <v>9</v>
       </c>
       <c r="F457" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G457">
         <v>0</v>
@@ -15367,16 +15367,16 @@
         <v>196</v>
       </c>
       <c r="C458">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D458">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="E458" t="s">
         <v>9</v>
       </c>
       <c r="F458" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G458">
         <v>0</v>
@@ -15399,16 +15399,16 @@
         <v>196</v>
       </c>
       <c r="C459">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D459">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E459" t="s">
         <v>9</v>
       </c>
       <c r="F459" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G459">
         <v>0</v>
@@ -15428,13 +15428,13 @@
         <v>2010</v>
       </c>
       <c r="B460">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C460">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D460">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E460" t="s">
         <v>9</v>
@@ -15463,7 +15463,7 @@
         <v>199</v>
       </c>
       <c r="C461">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D461">
         <v>10</v>
@@ -15472,7 +15472,7 @@
         <v>9</v>
       </c>
       <c r="F461" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G461">
         <v>0</v>
@@ -15492,10 +15492,10 @@
         <v>2010</v>
       </c>
       <c r="B462">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C462">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D462">
         <v>10</v>
@@ -15527,16 +15527,16 @@
         <v>209</v>
       </c>
       <c r="C463">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D463">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E463" t="s">
         <v>9</v>
       </c>
       <c r="F463" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G463">
         <v>0</v>
@@ -15562,13 +15562,13 @@
         <v>4</v>
       </c>
       <c r="D464">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E464" t="s">
         <v>9</v>
       </c>
       <c r="F464" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G464">
         <v>0</v>
@@ -15591,16 +15591,16 @@
         <v>209</v>
       </c>
       <c r="C465">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D465">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E465" t="s">
         <v>9</v>
       </c>
       <c r="F465" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G465">
         <v>0</v>
@@ -15620,19 +15620,19 @@
         <v>2010</v>
       </c>
       <c r="B466">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C466">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D466">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E466" t="s">
         <v>9</v>
       </c>
       <c r="F466" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G466">
         <v>0</v>
@@ -15655,7 +15655,7 @@
         <v>211</v>
       </c>
       <c r="C467">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D467">
         <v>16</v>
@@ -15664,7 +15664,7 @@
         <v>9</v>
       </c>
       <c r="F467" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G467">
         <v>0</v>
@@ -15684,19 +15684,19 @@
         <v>2010</v>
       </c>
       <c r="B468">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C468">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D468">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E468" t="s">
         <v>9</v>
       </c>
       <c r="F468" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G468">
         <v>0</v>
@@ -15719,16 +15719,16 @@
         <v>212</v>
       </c>
       <c r="C469">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D469">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E469" t="s">
         <v>9</v>
       </c>
       <c r="F469" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G469">
         <v>0</v>
@@ -15751,16 +15751,16 @@
         <v>212</v>
       </c>
       <c r="C470">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D470">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E470" t="s">
         <v>9</v>
       </c>
       <c r="F470" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G470">
         <v>0</v>
@@ -15772,7 +15772,7 @@
         <v>0</v>
       </c>
       <c r="J470" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.3">
@@ -15780,13 +15780,13 @@
         <v>2010</v>
       </c>
       <c r="B471">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C471">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D471">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E471" t="s">
         <v>9</v>
@@ -15804,7 +15804,7 @@
         <v>0</v>
       </c>
       <c r="J471" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.3">
@@ -15812,19 +15812,19 @@
         <v>2010</v>
       </c>
       <c r="B472">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C472">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D472">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E472" t="s">
         <v>9</v>
       </c>
       <c r="F472" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G472">
         <v>0</v>
@@ -15847,10 +15847,10 @@
         <v>220</v>
       </c>
       <c r="C473">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D473">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E473" t="s">
         <v>9</v>
@@ -15876,19 +15876,19 @@
         <v>2010</v>
       </c>
       <c r="B474">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C474">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D474">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E474" t="s">
         <v>9</v>
       </c>
       <c r="F474" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G474">
         <v>0</v>
@@ -15908,19 +15908,19 @@
         <v>2010</v>
       </c>
       <c r="B475">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="C475">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D475">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E475" t="s">
         <v>9</v>
       </c>
       <c r="F475" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G475">
         <v>0</v>
@@ -15943,16 +15943,16 @@
         <v>238</v>
       </c>
       <c r="C476">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D476">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E476" t="s">
         <v>9</v>
       </c>
       <c r="F476" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G476">
         <v>0</v>
@@ -15978,13 +15978,13 @@
         <v>4</v>
       </c>
       <c r="D477">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E477" t="s">
         <v>9</v>
       </c>
       <c r="F477" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G477">
         <v>0</v>
@@ -16010,13 +16010,13 @@
         <v>4</v>
       </c>
       <c r="D478">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E478" t="s">
         <v>9</v>
       </c>
       <c r="F478" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G478">
         <v>0</v>
@@ -16036,19 +16036,19 @@
         <v>2010</v>
       </c>
       <c r="B479">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="C479">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D479">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E479" t="s">
         <v>9</v>
       </c>
       <c r="F479" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G479">
         <v>0</v>
@@ -16071,16 +16071,16 @@
         <v>249</v>
       </c>
       <c r="C480">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D480">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E480" t="s">
         <v>9</v>
       </c>
       <c r="F480" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G480">
         <v>0</v>
@@ -16100,13 +16100,13 @@
         <v>2010</v>
       </c>
       <c r="B481">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C481">
+        <v>18</v>
+      </c>
+      <c r="D481">
         <v>12</v>
-      </c>
-      <c r="D481">
-        <v>0</v>
       </c>
       <c r="E481" t="s">
         <v>9</v>
@@ -16138,13 +16138,13 @@
         <v>18</v>
       </c>
       <c r="D482">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E482" t="s">
         <v>9</v>
       </c>
       <c r="F482" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G482">
         <v>0</v>
@@ -16164,13 +16164,13 @@
         <v>2010</v>
       </c>
       <c r="B483">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C483">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D483">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E483" t="s">
         <v>9</v>
@@ -16179,16 +16179,16 @@
         <v>10</v>
       </c>
       <c r="G483">
-        <v>0</v>
+        <v>-3.78</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>43.33</v>
       </c>
       <c r="I483">
-        <v>0</v>
+        <v>-1.56</v>
       </c>
       <c r="J483" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.3">
@@ -16199,10 +16199,10 @@
         <v>255</v>
       </c>
       <c r="C484">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D484">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E484" t="s">
         <v>9</v>
@@ -16211,16 +16211,16 @@
         <v>10</v>
       </c>
       <c r="G484">
-        <v>-3.78</v>
+        <v>0</v>
       </c>
       <c r="H484">
-        <v>43.33</v>
+        <v>0</v>
       </c>
       <c r="I484">
-        <v>-1.56</v>
+        <v>0</v>
       </c>
       <c r="J484" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.3">
@@ -16231,16 +16231,16 @@
         <v>255</v>
       </c>
       <c r="C485">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D485">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E485" t="s">
         <v>9</v>
       </c>
       <c r="F485" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G485">
         <v>0</v>
@@ -16263,16 +16263,16 @@
         <v>255</v>
       </c>
       <c r="C486">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D486">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E486" t="s">
         <v>9</v>
       </c>
       <c r="F486" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G486">
         <v>0</v>
@@ -16298,13 +16298,13 @@
         <v>23</v>
       </c>
       <c r="D487">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E487" t="s">
         <v>9</v>
       </c>
       <c r="F487" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G487">
         <v>0</v>
@@ -16324,19 +16324,19 @@
         <v>2010</v>
       </c>
       <c r="B488">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C488">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D488">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E488" t="s">
         <v>9</v>
       </c>
       <c r="F488" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G488">
         <v>0</v>
@@ -16359,16 +16359,16 @@
         <v>257</v>
       </c>
       <c r="C489">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D489">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E489" t="s">
         <v>9</v>
       </c>
       <c r="F489" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G489">
         <v>0</v>
@@ -16388,13 +16388,13 @@
         <v>2010</v>
       </c>
       <c r="B490">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C490">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D490">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E490" t="s">
         <v>9</v>
@@ -16423,16 +16423,16 @@
         <v>259</v>
       </c>
       <c r="C491">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D491">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E491" t="s">
         <v>9</v>
       </c>
       <c r="F491" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G491">
         <v>0</v>
@@ -16452,13 +16452,13 @@
         <v>2010</v>
       </c>
       <c r="B492">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="C492">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D492">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E492" t="s">
         <v>9</v>
@@ -16490,13 +16490,13 @@
         <v>4</v>
       </c>
       <c r="D493">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E493" t="s">
         <v>9</v>
       </c>
       <c r="F493" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G493">
         <v>0</v>
@@ -16519,16 +16519,16 @@
         <v>271</v>
       </c>
       <c r="C494">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D494">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E494" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F494" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G494">
         <v>0</v>
@@ -16551,16 +16551,16 @@
         <v>271</v>
       </c>
       <c r="C495">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D495">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E495" t="s">
         <v>12</v>
       </c>
       <c r="F495" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G495">
         <v>0</v>
@@ -16580,31 +16580,31 @@
         <v>2010</v>
       </c>
       <c r="B496">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C496">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D496">
+        <v>0</v>
+      </c>
+      <c r="E496" t="s">
         <v>13</v>
       </c>
-      <c r="E496" t="s">
-        <v>12</v>
-      </c>
       <c r="F496" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G496">
-        <v>0</v>
+        <v>-2.21</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>46.17</v>
       </c>
       <c r="I496">
-        <v>0</v>
+        <v>-1.02</v>
       </c>
       <c r="J496" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.3">
@@ -16612,31 +16612,31 @@
         <v>2010</v>
       </c>
       <c r="B497">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C497">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D497">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E497" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F497" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G497">
-        <v>-2.21</v>
+        <v>0</v>
       </c>
       <c r="H497">
-        <v>46.17</v>
+        <v>0</v>
       </c>
       <c r="I497">
-        <v>-1.02</v>
+        <v>0</v>
       </c>
       <c r="J497" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.3">
@@ -16650,13 +16650,13 @@
         <v>0</v>
       </c>
       <c r="D498">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E498" t="s">
         <v>9</v>
       </c>
       <c r="F498" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G498">
         <v>0</v>
@@ -16676,19 +16676,19 @@
         <v>2010</v>
       </c>
       <c r="B499">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="C499">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D499">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E499" t="s">
         <v>9</v>
       </c>
       <c r="F499" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G499">
         <v>0</v>
@@ -16711,16 +16711,16 @@
         <v>292</v>
       </c>
       <c r="C500">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D500">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E500" t="s">
         <v>9</v>
       </c>
       <c r="F500" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G500">
         <v>0</v>
@@ -16743,16 +16743,16 @@
         <v>292</v>
       </c>
       <c r="C501">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D501">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E501" t="s">
         <v>9</v>
       </c>
       <c r="F501" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G501">
         <v>0</v>
@@ -16775,16 +16775,16 @@
         <v>292</v>
       </c>
       <c r="C502">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D502">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E502" t="s">
         <v>9</v>
       </c>
       <c r="F502" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G502">
         <v>0</v>
@@ -16807,16 +16807,16 @@
         <v>292</v>
       </c>
       <c r="C503">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D503">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E503" t="s">
         <v>9</v>
       </c>
       <c r="F503" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G503">
         <v>0</v>
@@ -16839,7 +16839,7 @@
         <v>292</v>
       </c>
       <c r="C504">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D504">
         <v>40</v>
@@ -16848,7 +16848,7 @@
         <v>9</v>
       </c>
       <c r="F504" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G504">
         <v>0</v>
@@ -16868,19 +16868,19 @@
         <v>2010</v>
       </c>
       <c r="B505">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C505">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D505">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E505" t="s">
         <v>9</v>
       </c>
       <c r="F505" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G505">
         <v>0</v>
@@ -16903,16 +16903,16 @@
         <v>293</v>
       </c>
       <c r="C506">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D506">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E506" t="s">
         <v>9</v>
       </c>
       <c r="F506" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G506">
         <v>0</v>
@@ -16932,19 +16932,19 @@
         <v>2010</v>
       </c>
       <c r="B507">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C507">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D507">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E507" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F507" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G507">
         <v>0</v>
@@ -16967,16 +16967,16 @@
         <v>298</v>
       </c>
       <c r="C508">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D508">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E508" t="s">
         <v>12</v>
       </c>
       <c r="F508" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G508">
         <v>0</v>
@@ -16999,16 +16999,16 @@
         <v>298</v>
       </c>
       <c r="C509">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D509">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E509" t="s">
         <v>12</v>
       </c>
       <c r="F509" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G509">
         <v>0</v>
@@ -17031,16 +17031,16 @@
         <v>298</v>
       </c>
       <c r="C510">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D510">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E510" t="s">
         <v>12</v>
       </c>
       <c r="F510" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G510">
         <v>0</v>
@@ -17060,31 +17060,31 @@
         <v>2010</v>
       </c>
       <c r="B511">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C511">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D511">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E511" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F511" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G511">
-        <v>0</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>48.22</v>
       </c>
       <c r="I511">
-        <v>0</v>
+        <v>-0.68</v>
       </c>
       <c r="J511" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.3">
@@ -17095,28 +17095,28 @@
         <v>302</v>
       </c>
       <c r="C512">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D512">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="E512" t="s">
         <v>9</v>
       </c>
       <c r="F512" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G512">
-        <v>-9.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="H512">
-        <v>48.22</v>
+        <v>0</v>
       </c>
       <c r="I512">
-        <v>-0.68</v>
+        <v>0</v>
       </c>
       <c r="J512" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="513" spans="1:10" x14ac:dyDescent="0.3">
@@ -17127,16 +17127,16 @@
         <v>302</v>
       </c>
       <c r="C513">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D513">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E513" t="s">
         <v>9</v>
       </c>
       <c r="F513" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G513">
         <v>0</v>
@@ -17156,13 +17156,13 @@
         <v>2010</v>
       </c>
       <c r="B514">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="C514">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D514">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E514" t="s">
         <v>9</v>
@@ -17191,16 +17191,16 @@
         <v>325</v>
       </c>
       <c r="C515">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D515">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="E515" t="s">
         <v>9</v>
       </c>
       <c r="F515" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G515">
         <v>0</v>
@@ -17220,31 +17220,31 @@
         <v>2010</v>
       </c>
       <c r="B516">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C516">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D516">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E516" t="s">
         <v>9</v>
       </c>
       <c r="F516" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G516">
-        <v>0</v>
+        <v>-7.29</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>42.95</v>
       </c>
       <c r="I516">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="J516" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="517" spans="1:10" x14ac:dyDescent="0.3">
@@ -17252,13 +17252,13 @@
         <v>2010</v>
       </c>
       <c r="B517">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="C517">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D517">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E517" t="s">
         <v>9</v>
@@ -17267,13 +17267,13 @@
         <v>10</v>
       </c>
       <c r="G517">
-        <v>-7.29</v>
+        <v>0</v>
       </c>
       <c r="H517">
-        <v>42.95</v>
+        <v>0</v>
       </c>
       <c r="I517">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="J517" t="s">
         <v>17</v>
@@ -17284,13 +17284,13 @@
         <v>2010</v>
       </c>
       <c r="B518">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="C518">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D518">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E518" t="s">
         <v>9</v>
@@ -17308,7 +17308,7 @@
         <v>0</v>
       </c>
       <c r="J518" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.3">
@@ -17322,13 +17322,13 @@
         <v>0</v>
       </c>
       <c r="D519">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E519" t="s">
         <v>9</v>
       </c>
       <c r="F519" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G519">
         <v>0</v>
@@ -17348,13 +17348,13 @@
         <v>2010</v>
       </c>
       <c r="B520">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C520">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D520">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E520" t="s">
         <v>9</v>
@@ -17386,13 +17386,13 @@
         <v>10</v>
       </c>
       <c r="D521">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E521" t="s">
         <v>9</v>
       </c>
       <c r="F521" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G521">
         <v>0</v>
@@ -17415,16 +17415,16 @@
         <v>358</v>
       </c>
       <c r="C522">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D522">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="E522" t="s">
         <v>9</v>
       </c>
       <c r="F522" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G522">
         <v>0</v>
@@ -17450,13 +17450,13 @@
         <v>11</v>
       </c>
       <c r="D523">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E523" t="s">
         <v>9</v>
       </c>
       <c r="F523" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G523">
         <v>0</v>
@@ -17479,16 +17479,16 @@
         <v>358</v>
       </c>
       <c r="C524">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D524">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E524" t="s">
         <v>9</v>
       </c>
       <c r="F524" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G524">
         <v>0</v>
@@ -17514,13 +17514,13 @@
         <v>20</v>
       </c>
       <c r="D525">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E525" t="s">
         <v>9</v>
       </c>
       <c r="F525" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G525">
         <v>0</v>
@@ -17546,13 +17546,13 @@
         <v>20</v>
       </c>
       <c r="D526">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E526" t="s">
         <v>9</v>
       </c>
       <c r="F526" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G526">
         <v>0</v>
@@ -17578,13 +17578,13 @@
         <v>20</v>
       </c>
       <c r="D527">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E527" t="s">
         <v>9</v>
       </c>
       <c r="F527" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G527">
         <v>0</v>
@@ -17604,13 +17604,13 @@
         <v>2010</v>
       </c>
       <c r="B528">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C528">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D528">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="E528" t="s">
         <v>9</v>
@@ -17642,13 +17642,13 @@
         <v>9</v>
       </c>
       <c r="D529">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E529" t="s">
         <v>9</v>
       </c>
       <c r="F529" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G529">
         <v>0</v>
@@ -17671,16 +17671,16 @@
         <v>359</v>
       </c>
       <c r="C530">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D530">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E530" t="s">
         <v>9</v>
       </c>
       <c r="F530" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G530">
         <v>0</v>
@@ -17692,7 +17692,7 @@
         <v>0</v>
       </c>
       <c r="J530" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="531" spans="1:10" x14ac:dyDescent="0.3">
@@ -17700,19 +17700,19 @@
         <v>2010</v>
       </c>
       <c r="B531">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C531">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D531">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E531" t="s">
         <v>9</v>
       </c>
       <c r="F531" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G531">
         <v>0</v>
@@ -17724,7 +17724,7 @@
         <v>0</v>
       </c>
       <c r="J531" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.3">
@@ -17735,16 +17735,16 @@
         <v>360</v>
       </c>
       <c r="C532">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D532">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E532" t="s">
         <v>9</v>
       </c>
       <c r="F532" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G532">
         <v>0</v>
@@ -17764,19 +17764,19 @@
         <v>2010</v>
       </c>
       <c r="B533">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C533">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D533">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E533" t="s">
         <v>9</v>
       </c>
       <c r="F533" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G533">
         <v>0</v>
@@ -17799,16 +17799,16 @@
         <v>361</v>
       </c>
       <c r="C534">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D534">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E534" t="s">
         <v>9</v>
       </c>
       <c r="F534" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G534">
         <v>0</v>
@@ -17825,34 +17825,34 @@
     </row>
     <row r="535" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A535">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B535">
-        <v>361</v>
+        <v>2</v>
       </c>
       <c r="C535">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D535">
+        <v>48</v>
+      </c>
+      <c r="E535" t="s">
+        <v>9</v>
+      </c>
+      <c r="F535" t="s">
+        <v>10</v>
+      </c>
+      <c r="G535">
+        <v>0</v>
+      </c>
+      <c r="H535">
+        <v>0</v>
+      </c>
+      <c r="I535">
+        <v>0</v>
+      </c>
+      <c r="J535" t="s">
         <v>17</v>
-      </c>
-      <c r="E535" t="s">
-        <v>9</v>
-      </c>
-      <c r="F535" t="s">
-        <v>10</v>
-      </c>
-      <c r="G535">
-        <v>0</v>
-      </c>
-      <c r="H535">
-        <v>0</v>
-      </c>
-      <c r="I535">
-        <v>0</v>
-      </c>
-      <c r="J535" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.3">
@@ -17860,19 +17860,19 @@
         <v>2011</v>
       </c>
       <c r="B536">
+        <v>3</v>
+      </c>
+      <c r="C536">
         <v>2</v>
       </c>
-      <c r="C536">
-        <v>1</v>
-      </c>
       <c r="D536">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E536" t="s">
         <v>9</v>
       </c>
       <c r="F536" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G536">
         <v>0</v>
@@ -17884,7 +17884,7 @@
         <v>0</v>
       </c>
       <c r="J536" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="537" spans="1:10" x14ac:dyDescent="0.3">
@@ -17895,16 +17895,16 @@
         <v>3</v>
       </c>
       <c r="C537">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D537">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E537" t="s">
         <v>9</v>
       </c>
       <c r="F537" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G537">
         <v>0</v>
@@ -17924,19 +17924,19 @@
         <v>2011</v>
       </c>
       <c r="B538">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C538">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D538">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E538" t="s">
         <v>9</v>
       </c>
       <c r="F538" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G538">
         <v>0</v>
@@ -17959,7 +17959,7 @@
         <v>4</v>
       </c>
       <c r="C539">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D539">
         <v>33</v>
@@ -17968,7 +17968,7 @@
         <v>9</v>
       </c>
       <c r="F539" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G539">
         <v>0</v>
@@ -17991,16 +17991,16 @@
         <v>4</v>
       </c>
       <c r="C540">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D540">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E540" t="s">
         <v>9</v>
       </c>
       <c r="F540" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G540">
         <v>0</v>
@@ -18026,13 +18026,13 @@
         <v>8</v>
       </c>
       <c r="D541">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E541" t="s">
         <v>9</v>
       </c>
       <c r="F541" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G541">
         <v>0</v>
@@ -18058,13 +18058,13 @@
         <v>8</v>
       </c>
       <c r="D542">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E542" t="s">
         <v>9</v>
       </c>
       <c r="F542" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G542">
         <v>0</v>
@@ -18090,13 +18090,13 @@
         <v>8</v>
       </c>
       <c r="D543">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E543" t="s">
         <v>9</v>
       </c>
       <c r="F543" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G543">
         <v>0</v>
@@ -18116,13 +18116,13 @@
         <v>2011</v>
       </c>
       <c r="B544">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C544">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D544">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E544" t="s">
         <v>9</v>
@@ -18151,16 +18151,16 @@
         <v>14</v>
       </c>
       <c r="C545">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D545">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E545" t="s">
         <v>9</v>
       </c>
       <c r="F545" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G545">
         <v>0</v>
@@ -18186,13 +18186,13 @@
         <v>21</v>
       </c>
       <c r="D546">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E546" t="s">
         <v>9</v>
       </c>
       <c r="F546" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G546">
         <v>0</v>
@@ -18215,16 +18215,16 @@
         <v>14</v>
       </c>
       <c r="C547">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D547">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E547" t="s">
         <v>9</v>
       </c>
       <c r="F547" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G547">
         <v>0</v>
@@ -18244,19 +18244,19 @@
         <v>2011</v>
       </c>
       <c r="B548">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C548">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D548">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E548" t="s">
         <v>9</v>
       </c>
       <c r="F548" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G548">
         <v>0</v>
@@ -18282,13 +18282,13 @@
         <v>6</v>
       </c>
       <c r="D549">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E549" t="s">
         <v>9</v>
       </c>
       <c r="F549" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G549">
         <v>0</v>
@@ -18308,16 +18308,16 @@
         <v>2011</v>
       </c>
       <c r="B550">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C550">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D550">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E550" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F550" t="s">
         <v>11</v>
@@ -18343,16 +18343,16 @@
         <v>20</v>
       </c>
       <c r="C551">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D551">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E551" t="s">
         <v>12</v>
       </c>
       <c r="F551" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G551">
         <v>0</v>
@@ -18372,16 +18372,16 @@
         <v>2011</v>
       </c>
       <c r="B552">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C552">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D552">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E552" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F552" t="s">
         <v>10</v>
@@ -18407,16 +18407,16 @@
         <v>36</v>
       </c>
       <c r="C553">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D553">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E553" t="s">
         <v>9</v>
       </c>
       <c r="F553" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G553">
         <v>0</v>
@@ -18436,13 +18436,13 @@
         <v>2011</v>
       </c>
       <c r="B554">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C554">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D554">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E554" t="s">
         <v>9</v>
@@ -18471,16 +18471,16 @@
         <v>37</v>
       </c>
       <c r="C555">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D555">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="E555" t="s">
         <v>9</v>
       </c>
       <c r="F555" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G555">
         <v>0</v>
@@ -18503,16 +18503,16 @@
         <v>37</v>
       </c>
       <c r="C556">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D556">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E556" t="s">
         <v>9</v>
       </c>
       <c r="F556" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G556">
         <v>0</v>
@@ -18538,13 +18538,13 @@
         <v>20</v>
       </c>
       <c r="D557">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E557" t="s">
         <v>9</v>
       </c>
       <c r="F557" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G557">
         <v>0</v>
@@ -18564,19 +18564,19 @@
         <v>2011</v>
       </c>
       <c r="B558">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C558">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D558">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E558" t="s">
         <v>9</v>
       </c>
       <c r="F558" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G558">
         <v>0</v>
@@ -18599,16 +18599,16 @@
         <v>38</v>
       </c>
       <c r="C559">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D559">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E559" t="s">
         <v>9</v>
       </c>
       <c r="F559" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G559">
         <v>0</v>
@@ -18631,16 +18631,16 @@
         <v>38</v>
       </c>
       <c r="C560">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D560">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E560" t="s">
         <v>9</v>
       </c>
       <c r="F560" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G560">
         <v>0</v>
@@ -18663,16 +18663,16 @@
         <v>38</v>
       </c>
       <c r="C561">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D561">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E561" t="s">
         <v>9</v>
       </c>
       <c r="F561" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G561">
         <v>0</v>
@@ -18695,16 +18695,16 @@
         <v>38</v>
       </c>
       <c r="C562">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D562">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E562" t="s">
         <v>9</v>
       </c>
       <c r="F562" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G562">
         <v>0</v>
@@ -18727,16 +18727,16 @@
         <v>38</v>
       </c>
       <c r="C563">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D563">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="E563" t="s">
         <v>9</v>
       </c>
       <c r="F563" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G563">
         <v>0</v>
@@ -18756,13 +18756,13 @@
         <v>2011</v>
       </c>
       <c r="B564">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C564">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D564">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E564" t="s">
         <v>9</v>
@@ -18771,16 +18771,16 @@
         <v>10</v>
       </c>
       <c r="G564">
-        <v>0</v>
+        <v>-3.59</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>43.94</v>
       </c>
       <c r="I564">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="J564" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="565" spans="1:10" x14ac:dyDescent="0.3">
@@ -18791,28 +18791,28 @@
         <v>42</v>
       </c>
       <c r="C565">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D565">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E565" t="s">
         <v>9</v>
       </c>
       <c r="F565" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G565">
-        <v>-3.59</v>
+        <v>0</v>
       </c>
       <c r="H565">
-        <v>43.94</v>
+        <v>0</v>
       </c>
       <c r="I565">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="J565" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="566" spans="1:10" x14ac:dyDescent="0.3">
@@ -18823,16 +18823,16 @@
         <v>42</v>
       </c>
       <c r="C566">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D566">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E566" t="s">
         <v>9</v>
       </c>
       <c r="F566" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G566">
         <v>0</v>
@@ -18852,31 +18852,31 @@
         <v>2011</v>
       </c>
       <c r="B567">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C567">
+        <v>15</v>
+      </c>
+      <c r="D567">
+        <v>0</v>
+      </c>
+      <c r="E567" t="s">
+        <v>9</v>
+      </c>
+      <c r="F567" t="s">
+        <v>11</v>
+      </c>
+      <c r="G567">
+        <v>-6.46</v>
+      </c>
+      <c r="H567">
+        <v>42.32</v>
+      </c>
+      <c r="I567">
+        <v>1.17</v>
+      </c>
+      <c r="J567" t="s">
         <v>17</v>
-      </c>
-      <c r="D567">
-        <v>54</v>
-      </c>
-      <c r="E567" t="s">
-        <v>9</v>
-      </c>
-      <c r="F567" t="s">
-        <v>10</v>
-      </c>
-      <c r="G567">
-        <v>0</v>
-      </c>
-      <c r="H567">
-        <v>0</v>
-      </c>
-      <c r="I567">
-        <v>0</v>
-      </c>
-      <c r="J567" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="568" spans="1:10" x14ac:dyDescent="0.3">
@@ -18884,31 +18884,31 @@
         <v>2011</v>
       </c>
       <c r="B568">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C568">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D568">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E568" t="s">
         <v>9</v>
       </c>
       <c r="F568" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G568">
-        <v>-6.46</v>
+        <v>0</v>
       </c>
       <c r="H568">
-        <v>42.32</v>
+        <v>0</v>
       </c>
       <c r="I568">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="J568" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="569" spans="1:10" x14ac:dyDescent="0.3">
@@ -18919,16 +18919,16 @@
         <v>53</v>
       </c>
       <c r="C569">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D569">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E569" t="s">
         <v>9</v>
       </c>
       <c r="F569" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G569">
         <v>0</v>
@@ -18948,31 +18948,31 @@
         <v>2011</v>
       </c>
       <c r="B570">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C570">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D570">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E570" t="s">
         <v>9</v>
       </c>
       <c r="F570" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G570">
-        <v>0</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>21.38</v>
       </c>
       <c r="I570">
-        <v>0</v>
+        <v>-2.6</v>
       </c>
       <c r="J570" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="571" spans="1:10" x14ac:dyDescent="0.3">
@@ -18980,28 +18980,28 @@
         <v>2011</v>
       </c>
       <c r="B571">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C571">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D571">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E571" t="s">
         <v>9</v>
       </c>
       <c r="F571" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G571">
-        <v>18.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="H571">
-        <v>21.38</v>
+        <v>0</v>
       </c>
       <c r="I571">
-        <v>-2.6</v>
+        <v>0</v>
       </c>
       <c r="J571" t="s">
         <v>17</v>
@@ -19012,19 +19012,19 @@
         <v>2011</v>
       </c>
       <c r="B572">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C572">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D572">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E572" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F572" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G572">
         <v>0</v>
@@ -19036,7 +19036,7 @@
         <v>0</v>
       </c>
       <c r="J572" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="573" spans="1:10" x14ac:dyDescent="0.3">
@@ -19050,13 +19050,13 @@
         <v>23</v>
       </c>
       <c r="D573">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E573" t="s">
         <v>12</v>
       </c>
       <c r="F573" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G573">
         <v>0</v>
@@ -19076,19 +19076,19 @@
         <v>2011</v>
       </c>
       <c r="B574">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C574">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D574">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E574" t="s">
         <v>12</v>
       </c>
       <c r="F574" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G574">
         <v>0</v>
@@ -19111,16 +19111,16 @@
         <v>63</v>
       </c>
       <c r="C575">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D575">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E575" t="s">
         <v>12</v>
       </c>
       <c r="F575" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G575">
         <v>0</v>
@@ -19140,16 +19140,16 @@
         <v>2011</v>
       </c>
       <c r="B576">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C576">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D576">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E576" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F576" t="s">
         <v>11</v>
@@ -19164,7 +19164,7 @@
         <v>0</v>
       </c>
       <c r="J576" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="577" spans="1:10" x14ac:dyDescent="0.3">
@@ -19175,16 +19175,16 @@
         <v>70</v>
       </c>
       <c r="C577">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D577">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E577" t="s">
         <v>9</v>
       </c>
       <c r="F577" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G577">
         <v>0</v>
@@ -19196,7 +19196,7 @@
         <v>0</v>
       </c>
       <c r="J577" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="578" spans="1:10" x14ac:dyDescent="0.3">
@@ -19210,13 +19210,13 @@
         <v>10</v>
       </c>
       <c r="D578">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E578" t="s">
         <v>9</v>
       </c>
       <c r="F578" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G578">
         <v>0</v>
@@ -19236,13 +19236,13 @@
         <v>2011</v>
       </c>
       <c r="B579">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C579">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D579">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E579" t="s">
         <v>9</v>
@@ -19271,16 +19271,16 @@
         <v>71</v>
       </c>
       <c r="C580">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D580">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E580" t="s">
         <v>9</v>
       </c>
       <c r="F580" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G580">
         <v>0</v>
@@ -19300,19 +19300,19 @@
         <v>2011</v>
       </c>
       <c r="B581">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C581">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D581">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E581" t="s">
         <v>9</v>
       </c>
       <c r="F581" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G581">
         <v>0</v>
@@ -19338,13 +19338,13 @@
         <v>16</v>
       </c>
       <c r="D582">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E582" t="s">
         <v>9</v>
       </c>
       <c r="F582" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G582">
         <v>0</v>
@@ -19367,16 +19367,16 @@
         <v>82</v>
       </c>
       <c r="C583">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D583">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E583" t="s">
         <v>9</v>
       </c>
       <c r="F583" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G583">
         <v>0</v>
@@ -19399,16 +19399,16 @@
         <v>82</v>
       </c>
       <c r="C584">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D584">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E584" t="s">
         <v>9</v>
       </c>
       <c r="F584" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G584">
         <v>0</v>
@@ -19428,19 +19428,19 @@
         <v>2011</v>
       </c>
       <c r="B585">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C585">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D585">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E585" t="s">
         <v>9</v>
       </c>
       <c r="F585" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G585">
         <v>0</v>
@@ -19466,13 +19466,13 @@
         <v>12</v>
       </c>
       <c r="D586">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E586" t="s">
         <v>9</v>
       </c>
       <c r="F586" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G586">
         <v>0</v>
@@ -19495,16 +19495,16 @@
         <v>83</v>
       </c>
       <c r="C587">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D587">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E587" t="s">
         <v>9</v>
       </c>
       <c r="F587" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G587">
         <v>0</v>
@@ -19530,13 +19530,13 @@
         <v>13</v>
       </c>
       <c r="D588">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E588" t="s">
         <v>9</v>
       </c>
       <c r="F588" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G588">
         <v>0</v>
@@ -19559,16 +19559,16 @@
         <v>83</v>
       </c>
       <c r="C589">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D589">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E589" t="s">
         <v>9</v>
       </c>
       <c r="F589" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G589">
         <v>0</v>
@@ -19591,16 +19591,16 @@
         <v>83</v>
       </c>
       <c r="C590">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D590">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E590" t="s">
         <v>9</v>
       </c>
       <c r="F590" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G590">
         <v>0</v>
@@ -19620,19 +19620,19 @@
         <v>2011</v>
       </c>
       <c r="B591">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C591">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D591">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E591" t="s">
         <v>9</v>
       </c>
       <c r="F591" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G591">
         <v>0</v>
@@ -19655,16 +19655,16 @@
         <v>84</v>
       </c>
       <c r="C592">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D592">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E592" t="s">
         <v>9</v>
       </c>
       <c r="F592" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G592">
         <v>0</v>
@@ -19687,16 +19687,16 @@
         <v>84</v>
       </c>
       <c r="C593">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D593">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E593" t="s">
         <v>9</v>
       </c>
       <c r="F593" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G593">
         <v>0</v>
@@ -19722,13 +19722,13 @@
         <v>9</v>
       </c>
       <c r="D594">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E594" t="s">
         <v>9</v>
       </c>
       <c r="F594" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G594">
         <v>0</v>
@@ -19751,16 +19751,16 @@
         <v>84</v>
       </c>
       <c r="C595">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D595">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E595" t="s">
         <v>9</v>
       </c>
       <c r="F595" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G595">
         <v>0</v>
@@ -19783,16 +19783,16 @@
         <v>84</v>
       </c>
       <c r="C596">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D596">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E596" t="s">
         <v>9</v>
       </c>
       <c r="F596" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G596">
         <v>0</v>
@@ -19815,16 +19815,16 @@
         <v>84</v>
       </c>
       <c r="C597">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D597">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E597" t="s">
         <v>9</v>
       </c>
       <c r="F597" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G597">
         <v>0</v>
@@ -19844,19 +19844,19 @@
         <v>2011</v>
       </c>
       <c r="B598">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C598">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D598">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E598" t="s">
         <v>9</v>
       </c>
       <c r="F598" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G598">
         <v>0</v>
@@ -19879,16 +19879,16 @@
         <v>85</v>
       </c>
       <c r="C599">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D599">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E599" t="s">
         <v>9</v>
       </c>
       <c r="F599" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G599">
         <v>0</v>
@@ -19911,16 +19911,16 @@
         <v>85</v>
       </c>
       <c r="C600">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D600">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E600" t="s">
         <v>9</v>
       </c>
       <c r="F600" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G600">
         <v>0</v>
@@ -19943,16 +19943,16 @@
         <v>85</v>
       </c>
       <c r="C601">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D601">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E601" t="s">
         <v>9</v>
       </c>
       <c r="F601" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G601">
         <v>0</v>
@@ -19975,16 +19975,16 @@
         <v>85</v>
       </c>
       <c r="C602">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D602">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E602" t="s">
         <v>9</v>
       </c>
       <c r="F602" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G602">
         <v>0</v>
@@ -20007,7 +20007,7 @@
         <v>85</v>
       </c>
       <c r="C603">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D603">
         <v>10</v>
@@ -20016,7 +20016,7 @@
         <v>9</v>
       </c>
       <c r="F603" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G603">
         <v>0</v>
@@ -20042,13 +20042,13 @@
         <v>16</v>
       </c>
       <c r="D604">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E604" t="s">
         <v>9</v>
       </c>
       <c r="F604" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G604">
         <v>0</v>
@@ -20071,16 +20071,16 @@
         <v>85</v>
       </c>
       <c r="C605">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D605">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E605" t="s">
         <v>9</v>
       </c>
       <c r="F605" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G605">
         <v>0</v>
@@ -20103,16 +20103,16 @@
         <v>85</v>
       </c>
       <c r="C606">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D606">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E606" t="s">
         <v>9</v>
       </c>
       <c r="F606" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G606">
         <v>0</v>
@@ -20135,16 +20135,16 @@
         <v>85</v>
       </c>
       <c r="C607">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D607">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E607" t="s">
         <v>9</v>
       </c>
       <c r="F607" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G607">
         <v>0</v>
@@ -20164,19 +20164,19 @@
         <v>2011</v>
       </c>
       <c r="B608">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C608">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D608">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E608" t="s">
         <v>9</v>
       </c>
       <c r="F608" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G608">
         <v>0</v>
@@ -20199,16 +20199,16 @@
         <v>86</v>
       </c>
       <c r="C609">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D609">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E609" t="s">
         <v>9</v>
       </c>
       <c r="F609" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G609">
         <v>0</v>
@@ -20228,19 +20228,19 @@
         <v>2011</v>
       </c>
       <c r="B610">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C610">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D610">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E610" t="s">
         <v>9</v>
       </c>
       <c r="F610" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G610">
         <v>0</v>
@@ -20260,13 +20260,13 @@
         <v>2011</v>
       </c>
       <c r="B611">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C611">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D611">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E611" t="s">
         <v>9</v>
@@ -20295,16 +20295,16 @@
         <v>111</v>
       </c>
       <c r="C612">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D612">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E612" t="s">
         <v>9</v>
       </c>
       <c r="F612" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G612">
         <v>0</v>
@@ -20327,16 +20327,16 @@
         <v>111</v>
       </c>
       <c r="C613">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D613">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E613" t="s">
         <v>9</v>
       </c>
       <c r="F613" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G613">
         <v>0</v>
@@ -20359,16 +20359,16 @@
         <v>111</v>
       </c>
       <c r="C614">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D614">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="E614" t="s">
         <v>9</v>
       </c>
       <c r="F614" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G614">
         <v>0</v>
@@ -20388,19 +20388,19 @@
         <v>2011</v>
       </c>
       <c r="B615">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C615">
         <v>10</v>
       </c>
       <c r="D615">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E615" t="s">
         <v>9</v>
       </c>
       <c r="F615" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G615">
         <v>0</v>
@@ -20423,16 +20423,16 @@
         <v>112</v>
       </c>
       <c r="C616">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D616">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E616" t="s">
         <v>9</v>
       </c>
       <c r="F616" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G616">
         <v>0</v>
@@ -20452,16 +20452,16 @@
         <v>2011</v>
       </c>
       <c r="B617">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C617">
+        <v>11</v>
+      </c>
+      <c r="D617">
+        <v>0</v>
+      </c>
+      <c r="E617" t="s">
         <v>12</v>
-      </c>
-      <c r="D617">
-        <v>13</v>
-      </c>
-      <c r="E617" t="s">
-        <v>9</v>
       </c>
       <c r="F617" t="s">
         <v>11</v>
@@ -20490,13 +20490,13 @@
         <v>11</v>
       </c>
       <c r="D618">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E618" t="s">
         <v>12</v>
       </c>
       <c r="F618" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G618">
         <v>0</v>
@@ -20516,19 +20516,19 @@
         <v>2011</v>
       </c>
       <c r="B619">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C619">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D619">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E619" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F619" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G619">
         <v>0</v>
@@ -20551,16 +20551,16 @@
         <v>122</v>
       </c>
       <c r="C620">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D620">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E620" t="s">
         <v>9</v>
       </c>
       <c r="F620" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G620">
         <v>0</v>
@@ -20583,16 +20583,16 @@
         <v>122</v>
       </c>
       <c r="C621">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D621">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E621" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F621" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G621">
         <v>0</v>
@@ -20618,13 +20618,13 @@
         <v>11</v>
       </c>
       <c r="D622">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E622" t="s">
         <v>12</v>
       </c>
       <c r="F622" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G622">
         <v>0</v>
@@ -20644,19 +20644,19 @@
         <v>2011</v>
       </c>
       <c r="B623">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C623">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D623">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E623" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F623" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G623">
         <v>0</v>
@@ -20679,16 +20679,16 @@
         <v>124</v>
       </c>
       <c r="C624">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D624">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E624" t="s">
         <v>9</v>
       </c>
       <c r="F624" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G624">
         <v>0</v>
@@ -20714,13 +20714,13 @@
         <v>18</v>
       </c>
       <c r="D625">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E625" t="s">
         <v>9</v>
       </c>
       <c r="F625" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G625">
         <v>0</v>
@@ -20743,16 +20743,16 @@
         <v>124</v>
       </c>
       <c r="C626">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D626">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E626" t="s">
         <v>9</v>
       </c>
       <c r="F626" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G626">
         <v>0</v>
@@ -20778,13 +20778,13 @@
         <v>19</v>
       </c>
       <c r="D627">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E627" t="s">
         <v>9</v>
       </c>
       <c r="F627" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G627">
         <v>0</v>
@@ -20807,16 +20807,16 @@
         <v>124</v>
       </c>
       <c r="C628">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D628">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E628" t="s">
         <v>9</v>
       </c>
       <c r="F628" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G628">
         <v>0</v>
@@ -20839,16 +20839,16 @@
         <v>124</v>
       </c>
       <c r="C629">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D629">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E629" t="s">
         <v>9</v>
       </c>
       <c r="F629" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G629">
         <v>0</v>
@@ -20871,16 +20871,16 @@
         <v>124</v>
       </c>
       <c r="C630">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D630">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="E630" t="s">
         <v>9</v>
       </c>
       <c r="F630" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G630">
         <v>0</v>
@@ -20906,13 +20906,13 @@
         <v>22</v>
       </c>
       <c r="D631">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E631" t="s">
         <v>9</v>
       </c>
       <c r="F631" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G631">
         <v>0</v>
@@ -20935,16 +20935,16 @@
         <v>124</v>
       </c>
       <c r="C632">
+        <v>23</v>
+      </c>
+      <c r="D632">
         <v>22</v>
       </c>
-      <c r="D632">
-        <v>51</v>
-      </c>
       <c r="E632" t="s">
         <v>9</v>
       </c>
       <c r="F632" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G632">
         <v>0</v>
@@ -20964,19 +20964,19 @@
         <v>2011</v>
       </c>
       <c r="B633">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C633">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D633">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E633" t="s">
         <v>9</v>
       </c>
       <c r="F633" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G633">
         <v>0</v>
@@ -20999,16 +20999,16 @@
         <v>125</v>
       </c>
       <c r="C634">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D634">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E634" t="s">
         <v>9</v>
       </c>
       <c r="F634" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G634">
         <v>0</v>
@@ -21028,13 +21028,13 @@
         <v>2011</v>
       </c>
       <c r="B635">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C635">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D635">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E635" t="s">
         <v>9</v>
@@ -21063,16 +21063,16 @@
         <v>126</v>
       </c>
       <c r="C636">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D636">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E636" t="s">
         <v>9</v>
       </c>
       <c r="F636" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G636">
         <v>0</v>
@@ -21095,16 +21095,16 @@
         <v>126</v>
       </c>
       <c r="C637">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D637">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E637" t="s">
         <v>9</v>
       </c>
       <c r="F637" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G637">
         <v>0</v>
@@ -21127,16 +21127,16 @@
         <v>126</v>
       </c>
       <c r="C638">
+        <v>5</v>
+      </c>
+      <c r="D638">
         <v>2</v>
       </c>
-      <c r="D638">
-        <v>23</v>
-      </c>
       <c r="E638" t="s">
         <v>9</v>
       </c>
       <c r="F638" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G638">
         <v>0</v>
@@ -21162,13 +21162,13 @@
         <v>5</v>
       </c>
       <c r="D639">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E639" t="s">
         <v>9</v>
       </c>
       <c r="F639" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G639">
         <v>0</v>
@@ -21194,13 +21194,13 @@
         <v>5</v>
       </c>
       <c r="D640">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E640" t="s">
         <v>9</v>
       </c>
       <c r="F640" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G640">
         <v>0</v>
@@ -21226,13 +21226,13 @@
         <v>5</v>
       </c>
       <c r="D641">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E641" t="s">
         <v>9</v>
       </c>
       <c r="F641" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G641">
         <v>0</v>
@@ -21255,16 +21255,16 @@
         <v>126</v>
       </c>
       <c r="C642">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D642">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E642" t="s">
         <v>9</v>
       </c>
       <c r="F642" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G642">
         <v>0</v>
@@ -21284,31 +21284,31 @@
         <v>2011</v>
       </c>
       <c r="B643">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C643">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D643">
+        <v>30</v>
+      </c>
+      <c r="E643" t="s">
+        <v>9</v>
+      </c>
+      <c r="F643" t="s">
+        <v>10</v>
+      </c>
+      <c r="G643">
+        <v>19.57</v>
+      </c>
+      <c r="H643">
+        <v>1.56</v>
+      </c>
+      <c r="I643">
+        <v>-3.25</v>
+      </c>
+      <c r="J643" t="s">
         <v>17</v>
-      </c>
-      <c r="E643" t="s">
-        <v>9</v>
-      </c>
-      <c r="F643" t="s">
-        <v>11</v>
-      </c>
-      <c r="G643">
-        <v>0</v>
-      </c>
-      <c r="H643">
-        <v>0</v>
-      </c>
-      <c r="I643">
-        <v>0</v>
-      </c>
-      <c r="J643" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="644" spans="1:10" x14ac:dyDescent="0.3">
@@ -21316,13 +21316,13 @@
         <v>2011</v>
       </c>
       <c r="B644">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C644">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D644">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E644" t="s">
         <v>9</v>
@@ -21331,16 +21331,16 @@
         <v>10</v>
       </c>
       <c r="G644">
-        <v>19.57</v>
+        <v>0</v>
       </c>
       <c r="H644">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="I644">
-        <v>-3.25</v>
+        <v>0</v>
       </c>
       <c r="J644" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="645" spans="1:10" x14ac:dyDescent="0.3">
@@ -21354,13 +21354,13 @@
         <v>4</v>
       </c>
       <c r="D645">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E645" t="s">
         <v>9</v>
       </c>
       <c r="F645" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G645">
         <v>0</v>
@@ -21383,16 +21383,16 @@
         <v>133</v>
       </c>
       <c r="C646">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D646">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E646" t="s">
         <v>9</v>
       </c>
       <c r="F646" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G646">
         <v>0</v>
@@ -21415,16 +21415,16 @@
         <v>133</v>
       </c>
       <c r="C647">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D647">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="E647" t="s">
         <v>9</v>
       </c>
       <c r="F647" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G647">
         <v>0</v>
@@ -21450,13 +21450,13 @@
         <v>16</v>
       </c>
       <c r="D648">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E648" t="s">
         <v>9</v>
       </c>
       <c r="F648" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G648">
         <v>0</v>
@@ -21479,16 +21479,16 @@
         <v>133</v>
       </c>
       <c r="C649">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D649">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E649" t="s">
         <v>9</v>
       </c>
       <c r="F649" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G649">
         <v>0</v>
@@ -21511,16 +21511,16 @@
         <v>133</v>
       </c>
       <c r="C650">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D650">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E650" t="s">
         <v>9</v>
       </c>
       <c r="F650" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G650">
         <v>0</v>
@@ -21540,19 +21540,19 @@
         <v>2011</v>
       </c>
       <c r="B651">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C651">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D651">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E651" t="s">
         <v>9</v>
       </c>
       <c r="F651" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G651">
         <v>0</v>
@@ -21575,16 +21575,16 @@
         <v>134</v>
       </c>
       <c r="C652">
+        <v>3</v>
+      </c>
+      <c r="D652">
         <v>2</v>
       </c>
-      <c r="D652">
-        <v>42</v>
-      </c>
       <c r="E652" t="s">
         <v>9</v>
       </c>
       <c r="F652" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G652">
         <v>0</v>
@@ -21607,16 +21607,16 @@
         <v>134</v>
       </c>
       <c r="C653">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D653">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E653" t="s">
         <v>9</v>
       </c>
       <c r="F653" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G653">
         <v>0</v>
@@ -21639,16 +21639,16 @@
         <v>134</v>
       </c>
       <c r="C654">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D654">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E654" t="s">
         <v>9</v>
       </c>
       <c r="F654" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G654">
         <v>0</v>
@@ -21671,16 +21671,16 @@
         <v>134</v>
       </c>
       <c r="C655">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D655">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E655" t="s">
         <v>9</v>
       </c>
       <c r="F655" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G655">
         <v>0</v>
@@ -21700,19 +21700,19 @@
         <v>2011</v>
       </c>
       <c r="B656">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="C656">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D656">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="E656" t="s">
         <v>9</v>
       </c>
       <c r="F656" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G656">
         <v>0</v>
@@ -21735,16 +21735,16 @@
         <v>165</v>
       </c>
       <c r="C657">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D657">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E657" t="s">
         <v>9</v>
       </c>
       <c r="F657" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G657">
         <v>0</v>
@@ -21770,13 +21770,13 @@
         <v>15</v>
       </c>
       <c r="D658">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E658" t="s">
         <v>9</v>
       </c>
       <c r="F658" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G658">
         <v>0</v>
@@ -21799,16 +21799,16 @@
         <v>165</v>
       </c>
       <c r="C659">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D659">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E659" t="s">
         <v>9</v>
       </c>
       <c r="F659" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G659">
         <v>0</v>
@@ -21831,16 +21831,16 @@
         <v>165</v>
       </c>
       <c r="C660">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D660">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E660" t="s">
         <v>9</v>
       </c>
       <c r="F660" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G660">
         <v>0</v>
@@ -21863,16 +21863,16 @@
         <v>165</v>
       </c>
       <c r="C661">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D661">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E661" t="s">
         <v>9</v>
       </c>
       <c r="F661" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G661">
         <v>0</v>
@@ -21889,22 +21889,22 @@
     </row>
     <row r="662" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A662">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B662">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="C662">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D662">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E662" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F662" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G662">
         <v>0</v>
@@ -21924,19 +21924,19 @@
         <v>2012</v>
       </c>
       <c r="B663">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C663">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D663">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E663" t="s">
         <v>12</v>
       </c>
       <c r="F663" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G663">
         <v>0</v>
@@ -21956,19 +21956,19 @@
         <v>2012</v>
       </c>
       <c r="B664">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C664">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D664">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="E664" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F664" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G664">
         <v>0</v>
@@ -21991,16 +21991,16 @@
         <v>90</v>
       </c>
       <c r="C665">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D665">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E665" t="s">
         <v>9</v>
       </c>
       <c r="F665" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G665">
         <v>0</v>
@@ -22026,13 +22026,13 @@
         <v>19</v>
       </c>
       <c r="D666">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E666" t="s">
         <v>9</v>
       </c>
       <c r="F666" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G666">
         <v>0</v>
@@ -22055,16 +22055,16 @@
         <v>90</v>
       </c>
       <c r="C667">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D667">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E667" t="s">
         <v>9</v>
       </c>
       <c r="F667" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G667">
         <v>0</v>
@@ -22087,16 +22087,16 @@
         <v>90</v>
       </c>
       <c r="C668">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D668">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E668" t="s">
         <v>9</v>
       </c>
       <c r="F668" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G668">
         <v>0</v>
@@ -22119,16 +22119,16 @@
         <v>90</v>
       </c>
       <c r="C669">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D669">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E669" t="s">
         <v>9</v>
       </c>
       <c r="F669" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G669">
         <v>0</v>
@@ -22148,19 +22148,19 @@
         <v>2012</v>
       </c>
       <c r="B670">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C670">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D670">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E670" t="s">
         <v>9</v>
       </c>
       <c r="F670" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G670">
         <v>0</v>
@@ -22180,19 +22180,19 @@
         <v>2012</v>
       </c>
       <c r="B671">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C671">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D671">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E671" t="s">
         <v>9</v>
       </c>
       <c r="F671" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G671">
         <v>0</v>
@@ -22215,16 +22215,16 @@
         <v>102</v>
       </c>
       <c r="C672">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D672">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E672" t="s">
         <v>9</v>
       </c>
       <c r="F672" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G672">
         <v>0</v>
@@ -22250,13 +22250,13 @@
         <v>5</v>
       </c>
       <c r="D673">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E673" t="s">
         <v>9</v>
       </c>
       <c r="F673" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G673">
         <v>0</v>
@@ -22279,16 +22279,16 @@
         <v>102</v>
       </c>
       <c r="C674">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D674">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E674" t="s">
         <v>9</v>
       </c>
       <c r="F674" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G674">
         <v>0</v>
@@ -22311,16 +22311,16 @@
         <v>102</v>
       </c>
       <c r="C675">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D675">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E675" t="s">
         <v>9</v>
       </c>
       <c r="F675" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G675">
         <v>0</v>
@@ -22343,16 +22343,16 @@
         <v>102</v>
       </c>
       <c r="C676">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D676">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E676" t="s">
         <v>9</v>
       </c>
       <c r="F676" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G676">
         <v>0</v>
@@ -22375,16 +22375,16 @@
         <v>102</v>
       </c>
       <c r="C677">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D677">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E677" t="s">
         <v>9</v>
       </c>
       <c r="F677" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G677">
         <v>0</v>
@@ -22407,16 +22407,16 @@
         <v>102</v>
       </c>
       <c r="C678">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D678">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E678" t="s">
         <v>9</v>
       </c>
       <c r="F678" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G678">
         <v>0</v>
@@ -22439,16 +22439,16 @@
         <v>102</v>
       </c>
       <c r="C679">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D679">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E679" t="s">
         <v>9</v>
       </c>
       <c r="F679" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G679">
         <v>0</v>
@@ -22468,19 +22468,19 @@
         <v>2012</v>
       </c>
       <c r="B680">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C680">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D680">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E680" t="s">
         <v>9</v>
       </c>
       <c r="F680" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G680">
         <v>0</v>
@@ -22503,16 +22503,16 @@
         <v>115</v>
       </c>
       <c r="C681">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D681">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E681" t="s">
         <v>9</v>
       </c>
       <c r="F681" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G681">
         <v>0</v>
@@ -22532,19 +22532,19 @@
         <v>2012</v>
       </c>
       <c r="B682">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C682">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D682">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E682" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F682" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G682">
         <v>0</v>
@@ -22567,16 +22567,16 @@
         <v>127</v>
       </c>
       <c r="C683">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D683">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E683" t="s">
         <v>12</v>
       </c>
       <c r="F683" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G683">
         <v>0</v>
@@ -22599,16 +22599,16 @@
         <v>127</v>
       </c>
       <c r="C684">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D684">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E684" t="s">
         <v>12</v>
       </c>
       <c r="F684" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G684">
         <v>0</v>
@@ -22634,13 +22634,13 @@
         <v>20</v>
       </c>
       <c r="D685">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E685" t="s">
         <v>12</v>
       </c>
       <c r="F685" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G685">
         <v>0</v>
@@ -22666,13 +22666,13 @@
         <v>20</v>
       </c>
       <c r="D686">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E686" t="s">
         <v>12</v>
       </c>
       <c r="F686" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G686">
         <v>0</v>
@@ -22698,13 +22698,13 @@
         <v>20</v>
       </c>
       <c r="D687">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E687" t="s">
         <v>12</v>
       </c>
       <c r="F687" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G687">
         <v>0</v>
@@ -22724,19 +22724,19 @@
         <v>2012</v>
       </c>
       <c r="B688">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C688">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D688">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E688" t="s">
         <v>12</v>
       </c>
       <c r="F688" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G688">
         <v>0</v>
@@ -22759,16 +22759,16 @@
         <v>128</v>
       </c>
       <c r="C689">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D689">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E689" t="s">
         <v>12</v>
       </c>
       <c r="F689" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G689">
         <v>0</v>
@@ -22788,19 +22788,19 @@
         <v>2012</v>
       </c>
       <c r="B690">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C690">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D690">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E690" t="s">
         <v>12</v>
       </c>
       <c r="F690" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G690">
         <v>0</v>
@@ -22823,16 +22823,16 @@
         <v>134</v>
       </c>
       <c r="C691">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D691">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E691" t="s">
         <v>12</v>
       </c>
       <c r="F691" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G691">
         <v>0</v>
@@ -22852,31 +22852,31 @@
         <v>2012</v>
       </c>
       <c r="B692">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C692">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D692">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E692" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F692" t="s">
         <v>11</v>
       </c>
       <c r="G692">
-        <v>0</v>
+        <v>9.41</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="I692">
-        <v>0</v>
+        <v>-2.19</v>
       </c>
       <c r="J692" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="693" spans="1:10" x14ac:dyDescent="0.3">
@@ -22884,13 +22884,13 @@
         <v>2012</v>
       </c>
       <c r="B693">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C693">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D693">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E693" t="s">
         <v>9</v>
@@ -22899,16 +22899,16 @@
         <v>11</v>
       </c>
       <c r="G693">
-        <v>9.41</v>
+        <v>0</v>
       </c>
       <c r="H693">
-        <v>33.520000000000003</v>
+        <v>0</v>
       </c>
       <c r="I693">
-        <v>-2.19</v>
+        <v>0</v>
       </c>
       <c r="J693" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="694" spans="1:10" x14ac:dyDescent="0.3">
@@ -22919,16 +22919,16 @@
         <v>137</v>
       </c>
       <c r="C694">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D694">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E694" t="s">
         <v>9</v>
       </c>
       <c r="F694" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G694">
         <v>0</v>
@@ -22948,19 +22948,19 @@
         <v>2012</v>
       </c>
       <c r="B695">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C695">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D695">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E695" t="s">
         <v>9</v>
       </c>
       <c r="F695" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G695">
         <v>0</v>
@@ -22983,16 +22983,16 @@
         <v>138</v>
       </c>
       <c r="C696">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D696">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E696" t="s">
         <v>9</v>
       </c>
       <c r="F696" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G696">
         <v>0</v>
@@ -23012,31 +23012,31 @@
         <v>2012</v>
       </c>
       <c r="B697">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C697">
+        <v>10</v>
+      </c>
+      <c r="D697">
+        <v>10</v>
+      </c>
+      <c r="E697" t="s">
+        <v>9</v>
+      </c>
+      <c r="F697" t="s">
+        <v>10</v>
+      </c>
+      <c r="G697">
+        <v>0</v>
+      </c>
+      <c r="H697">
+        <v>0</v>
+      </c>
+      <c r="I697">
+        <v>0</v>
+      </c>
+      <c r="J697" t="s">
         <v>17</v>
-      </c>
-      <c r="D697">
-        <v>0</v>
-      </c>
-      <c r="E697" t="s">
-        <v>9</v>
-      </c>
-      <c r="F697" t="s">
-        <v>10</v>
-      </c>
-      <c r="G697">
-        <v>0</v>
-      </c>
-      <c r="H697">
-        <v>0</v>
-      </c>
-      <c r="I697">
-        <v>0</v>
-      </c>
-      <c r="J697" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="698" spans="1:10" x14ac:dyDescent="0.3">
@@ -23047,10 +23047,10 @@
         <v>145</v>
       </c>
       <c r="C698">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D698">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E698" t="s">
         <v>9</v>
@@ -23076,19 +23076,19 @@
         <v>2012</v>
       </c>
       <c r="B699">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C699">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D699">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E699" t="s">
         <v>9</v>
       </c>
       <c r="F699" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G699">
         <v>0</v>
@@ -23100,7 +23100,7 @@
         <v>0</v>
       </c>
       <c r="J699" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="700" spans="1:10" x14ac:dyDescent="0.3">
@@ -23111,7 +23111,7 @@
         <v>148</v>
       </c>
       <c r="C700">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D700">
         <v>30</v>
@@ -23120,7 +23120,7 @@
         <v>9</v>
       </c>
       <c r="F700" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G700">
         <v>0</v>
@@ -23143,16 +23143,16 @@
         <v>148</v>
       </c>
       <c r="C701">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D701">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E701" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F701" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G701">
         <v>0</v>
@@ -23178,13 +23178,13 @@
         <v>23</v>
       </c>
       <c r="D702">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E702" t="s">
         <v>12</v>
       </c>
       <c r="F702" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G702">
         <v>0</v>
@@ -23204,19 +23204,19 @@
         <v>2012</v>
       </c>
       <c r="B703">
-        <v>148</v>
+        <v>277</v>
       </c>
       <c r="C703">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D703">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E703" t="s">
         <v>12</v>
       </c>
       <c r="F703" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G703">
         <v>0</v>
@@ -23239,16 +23239,16 @@
         <v>277</v>
       </c>
       <c r="C704">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D704">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E704" t="s">
         <v>12</v>
       </c>
       <c r="F704" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G704">
         <v>0</v>
@@ -23265,19 +23265,19 @@
     </row>
     <row r="705" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A705">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B705">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="C705">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D705">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E705" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F705" t="s">
         <v>10</v>
@@ -23303,16 +23303,16 @@
         <v>11</v>
       </c>
       <c r="C706">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D706">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E706" t="s">
         <v>9</v>
       </c>
       <c r="F706" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G706">
         <v>0</v>
@@ -23335,16 +23335,16 @@
         <v>11</v>
       </c>
       <c r="C707">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D707">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E707" t="s">
         <v>9</v>
       </c>
       <c r="F707" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G707">
         <v>0</v>
@@ -23364,19 +23364,19 @@
         <v>2013</v>
       </c>
       <c r="B708">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C708">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D708">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E708" t="s">
         <v>9</v>
       </c>
       <c r="F708" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G708">
         <v>0</v>
@@ -23399,16 +23399,16 @@
         <v>12</v>
       </c>
       <c r="C709">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D709">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E709" t="s">
         <v>9</v>
       </c>
       <c r="F709" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G709">
         <v>0</v>
@@ -23431,16 +23431,16 @@
         <v>12</v>
       </c>
       <c r="C710">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D710">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E710" t="s">
         <v>9</v>
       </c>
       <c r="F710" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G710">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>2013</v>
       </c>
       <c r="B711">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C711">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D711">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E711" t="s">
         <v>9</v>
       </c>
       <c r="F711" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G711">
         <v>0</v>
@@ -23495,16 +23495,16 @@
         <v>13</v>
       </c>
       <c r="C712">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D712">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E712" t="s">
         <v>9</v>
       </c>
       <c r="F712" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G712">
         <v>0</v>
@@ -23524,19 +23524,19 @@
         <v>2013</v>
       </c>
       <c r="B713">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C713">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D713">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E713" t="s">
         <v>9</v>
       </c>
       <c r="F713" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G713">
         <v>0</v>
@@ -23559,16 +23559,16 @@
         <v>14</v>
       </c>
       <c r="C714">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D714">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E714" t="s">
         <v>9</v>
       </c>
       <c r="F714" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G714">
         <v>0</v>
@@ -23591,16 +23591,16 @@
         <v>14</v>
       </c>
       <c r="C715">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D715">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E715" t="s">
         <v>9</v>
       </c>
       <c r="F715" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G715">
         <v>0</v>
@@ -23623,16 +23623,16 @@
         <v>14</v>
       </c>
       <c r="C716">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D716">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="E716" t="s">
         <v>9</v>
       </c>
       <c r="F716" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G716">
         <v>0</v>
@@ -23649,19 +23649,19 @@
     </row>
     <row r="717" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A717">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B717">
-        <v>14</v>
+        <v>322</v>
       </c>
       <c r="C717">
+        <v>6</v>
+      </c>
+      <c r="D717">
+        <v>8</v>
+      </c>
+      <c r="E717" t="s">
         <v>12</v>
-      </c>
-      <c r="D717">
-        <v>49</v>
-      </c>
-      <c r="E717" t="s">
-        <v>9</v>
       </c>
       <c r="F717" t="s">
         <v>11</v>
@@ -23684,19 +23684,19 @@
         <v>2014</v>
       </c>
       <c r="B718">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C718">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D718">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E718" t="s">
         <v>12</v>
       </c>
       <c r="F718" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G718">
         <v>0</v>
@@ -23713,22 +23713,22 @@
     </row>
     <row r="719" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A719">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B719">
-        <v>326</v>
+        <v>68</v>
       </c>
       <c r="C719">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D719">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E719" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F719" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G719">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="J719" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="720" spans="1:10" x14ac:dyDescent="0.3">
@@ -23748,19 +23748,19 @@
         <v>2016</v>
       </c>
       <c r="B720">
-        <v>68</v>
+        <v>242</v>
       </c>
       <c r="C720">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D720">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E720" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F720" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G720">
         <v>0</v>
@@ -23780,16 +23780,16 @@
         <v>2016</v>
       </c>
       <c r="B721">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="C721">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D721">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E721" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F721" t="s">
         <v>10</v>
@@ -23812,13 +23812,13 @@
         <v>2016</v>
       </c>
       <c r="B722">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C722">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D722">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E722" t="s">
         <v>12</v>
@@ -23847,16 +23847,16 @@
         <v>153</v>
       </c>
       <c r="C723">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D723">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E723" t="s">
         <v>12</v>
       </c>
       <c r="F723" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G723">
         <v>0</v>
@@ -23876,19 +23876,19 @@
         <v>2016</v>
       </c>
       <c r="B724">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C724">
         <v>11</v>
       </c>
       <c r="D724">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="E724" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F724" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G724">
         <v>0</v>
@@ -23900,7 +23900,7 @@
         <v>0</v>
       </c>
       <c r="J724" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="725" spans="1:10" x14ac:dyDescent="0.3">
@@ -23911,16 +23911,16 @@
         <v>155</v>
       </c>
       <c r="C725">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D725">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="E725" t="s">
         <v>9</v>
       </c>
       <c r="F725" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G725">
         <v>0</v>
@@ -23932,38 +23932,6 @@
         <v>0</v>
       </c>
       <c r="J725" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="726" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A726">
-        <v>2016</v>
-      </c>
-      <c r="B726">
-        <v>155</v>
-      </c>
-      <c r="C726">
-        <v>12</v>
-      </c>
-      <c r="D726">
-        <v>52</v>
-      </c>
-      <c r="E726" t="s">
-        <v>9</v>
-      </c>
-      <c r="F726" t="s">
-        <v>11</v>
-      </c>
-      <c r="G726">
-        <v>0</v>
-      </c>
-      <c r="H726">
-        <v>0</v>
-      </c>
-      <c r="I726">
-        <v>0</v>
-      </c>
-      <c r="J726" t="s">
         <v>18</v>
       </c>
     </row>

--- a/dataset/changes_to_BS_MP_crossings.xlsx
+++ b/dataset/changes_to_BS_MP_crossings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/ucapikc_ucl_ac_uk/Documents/PhD/Project/2_Automated_BS_and_MP_Identification_at_Saturn/4-Dissemination/2-Publications/BS_MP_Crossings_Cassini/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="797" documentId="8_{4470F937-D516-43AE-A661-E04728A3F347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B7727D3-3F70-477F-906E-3C9AAED15305}"/>
+  <xr:revisionPtr revIDLastSave="810" documentId="8_{4470F937-D516-43AE-A661-E04728A3F347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4592BC1F-8B2E-4809-A76A-ED0CB3B6C926}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{169FDD74-68EB-4CD5-BBDD-497B2FB9C54B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="26">
   <si>
     <t>Year</t>
   </si>
@@ -726,11 +726,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCBC670D-FDFE-4233-86F0-24576FA0422C}">
-  <dimension ref="A1:J725"/>
+  <dimension ref="A1:J726"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="127" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A332" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C342" sqref="C342"/>
+      <pane ySplit="1" topLeftCell="A330" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J341" sqref="J341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11585,16 +11585,16 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B340">
-        <v>8</v>
+        <v>318</v>
       </c>
       <c r="C340">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D340">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E340" t="s">
         <v>9</v>
@@ -11603,16 +11603,16 @@
         <v>10</v>
       </c>
       <c r="G340">
-        <v>0</v>
+        <v>17.77</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>-4.74</v>
       </c>
       <c r="I340">
-        <v>0</v>
+        <v>9.59</v>
       </c>
       <c r="J340" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.3">
@@ -11626,13 +11626,13 @@
         <v>9</v>
       </c>
       <c r="D341">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E341" t="s">
         <v>9</v>
       </c>
       <c r="F341" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G341">
         <v>0</v>
@@ -11652,13 +11652,13 @@
         <v>2009</v>
       </c>
       <c r="B342">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C342">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D342">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E342" t="s">
         <v>9</v>
@@ -11667,16 +11667,16 @@
         <v>11</v>
       </c>
       <c r="G342">
-        <v>12.93</v>
+        <v>0</v>
       </c>
       <c r="H342">
-        <v>-10.08</v>
+        <v>0</v>
       </c>
       <c r="I342">
-        <v>-8.2799999999999994</v>
+        <v>0</v>
       </c>
       <c r="J342" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.3">
@@ -11684,13 +11684,13 @@
         <v>2009</v>
       </c>
       <c r="B343">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C343">
         <v>19</v>
       </c>
       <c r="D343">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E343" t="s">
         <v>9</v>
@@ -11699,13 +11699,13 @@
         <v>11</v>
       </c>
       <c r="G343">
-        <v>6.19</v>
+        <v>12.93</v>
       </c>
       <c r="H343">
-        <v>4.55</v>
+        <v>-10.08</v>
       </c>
       <c r="I343">
-        <v>15.95</v>
+        <v>-8.2799999999999994</v>
       </c>
       <c r="J343" t="s">
         <v>17</v>
@@ -11716,31 +11716,31 @@
         <v>2009</v>
       </c>
       <c r="B344">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="C344">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D344">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E344" t="s">
         <v>9</v>
       </c>
       <c r="F344" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G344">
-        <v>0</v>
+        <v>6.19</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="I344">
-        <v>0</v>
+        <v>15.95</v>
       </c>
       <c r="J344" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.3">
@@ -11751,16 +11751,16 @@
         <v>85</v>
       </c>
       <c r="C345">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D345">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E345" t="s">
         <v>9</v>
       </c>
       <c r="F345" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G345">
         <v>0</v>
@@ -11780,13 +11780,13 @@
         <v>2009</v>
       </c>
       <c r="B346">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C346">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D346">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E346" t="s">
         <v>9</v>
@@ -11795,16 +11795,16 @@
         <v>11</v>
       </c>
       <c r="G346">
-        <v>6.63</v>
+        <v>0</v>
       </c>
       <c r="H346">
-        <v>6.67</v>
+        <v>0</v>
       </c>
       <c r="I346">
-        <v>17.61</v>
+        <v>0</v>
       </c>
       <c r="J346" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.3">
@@ -11812,28 +11812,28 @@
         <v>2009</v>
       </c>
       <c r="B347">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C347">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D347">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="E347" t="s">
         <v>9</v>
       </c>
       <c r="F347" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G347">
-        <v>16.53</v>
+        <v>6.63</v>
       </c>
       <c r="H347">
-        <v>-1.84</v>
+        <v>6.67</v>
       </c>
       <c r="I347">
-        <v>12.85</v>
+        <v>17.61</v>
       </c>
       <c r="J347" t="s">
         <v>17</v>
@@ -11844,13 +11844,13 @@
         <v>2009</v>
       </c>
       <c r="B348">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C348">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D348">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E348" t="s">
         <v>9</v>
@@ -11859,13 +11859,13 @@
         <v>10</v>
       </c>
       <c r="G348">
-        <v>13.57</v>
+        <v>16.53</v>
       </c>
       <c r="H348">
-        <v>2.5499999999999998</v>
+        <v>-1.84</v>
       </c>
       <c r="I348">
-        <v>17.190000000000001</v>
+        <v>12.85</v>
       </c>
       <c r="J348" t="s">
         <v>17</v>
@@ -11876,31 +11876,31 @@
         <v>2009</v>
       </c>
       <c r="B349">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C349">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D349">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E349" t="s">
         <v>9</v>
       </c>
       <c r="F349" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G349">
-        <v>0</v>
+        <v>13.57</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="I349">
-        <v>0</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="J349" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
@@ -11914,13 +11914,13 @@
         <v>18</v>
       </c>
       <c r="D350">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E350" t="s">
         <v>9</v>
       </c>
       <c r="F350" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G350">
         <v>0</v>
@@ -11940,13 +11940,13 @@
         <v>2009</v>
       </c>
       <c r="B351">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C351">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D351">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E351" t="s">
         <v>9</v>
@@ -11975,16 +11975,16 @@
         <v>134</v>
       </c>
       <c r="C352">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D352">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E352" t="s">
         <v>9</v>
       </c>
       <c r="F352" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G352">
         <v>0</v>
@@ -12007,28 +12007,28 @@
         <v>134</v>
       </c>
       <c r="C353">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D353">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E353" t="s">
         <v>9</v>
       </c>
       <c r="F353" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G353">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="H353">
-        <v>4.87</v>
+        <v>0</v>
       </c>
       <c r="I353">
-        <v>19.22</v>
+        <v>0</v>
       </c>
       <c r="J353" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
@@ -12036,28 +12036,28 @@
         <v>2009</v>
       </c>
       <c r="B354">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C354">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D354">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E354" t="s">
         <v>9</v>
       </c>
       <c r="F354" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G354">
-        <v>0</v>
+        <v>12.3</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>4.87</v>
       </c>
       <c r="I354">
-        <v>0</v>
+        <v>19.22</v>
       </c>
       <c r="J354" t="s">
         <v>17</v>
@@ -12071,16 +12071,16 @@
         <v>135</v>
       </c>
       <c r="C355">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D355">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E355" t="s">
         <v>9</v>
       </c>
       <c r="F355" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G355">
         <v>0</v>
@@ -12092,7 +12092,7 @@
         <v>0</v>
       </c>
       <c r="J355" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.3">
@@ -12103,16 +12103,16 @@
         <v>135</v>
       </c>
       <c r="C356">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D356">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E356" t="s">
         <v>9</v>
       </c>
       <c r="F356" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G356">
         <v>0</v>
@@ -12132,31 +12132,31 @@
         <v>2009</v>
       </c>
       <c r="B357">
-        <v>242</v>
+        <v>135</v>
       </c>
       <c r="C357">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D357">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E357" t="s">
         <v>9</v>
       </c>
       <c r="F357" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G357">
-        <v>8.2100000000000009</v>
+        <v>0</v>
       </c>
       <c r="H357">
-        <v>26.15</v>
+        <v>0</v>
       </c>
       <c r="I357">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="J357" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.3">
@@ -12164,13 +12164,13 @@
         <v>2009</v>
       </c>
       <c r="B358">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="C358">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D358">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E358" t="s">
         <v>9</v>
@@ -12179,16 +12179,16 @@
         <v>10</v>
       </c>
       <c r="G358">
-        <v>0</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>26.15</v>
       </c>
       <c r="I358">
-        <v>0</v>
+        <v>5.66</v>
       </c>
       <c r="J358" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.3">
@@ -12199,16 +12199,16 @@
         <v>266</v>
       </c>
       <c r="C359">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D359">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E359" t="s">
         <v>9</v>
       </c>
       <c r="F359" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G359">
         <v>0</v>
@@ -12228,19 +12228,19 @@
         <v>2009</v>
       </c>
       <c r="B360">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C360">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D360">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E360" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F360" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G360">
         <v>0</v>
@@ -12263,16 +12263,16 @@
         <v>267</v>
       </c>
       <c r="C361">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D361">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E361" t="s">
         <v>12</v>
       </c>
       <c r="F361" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G361">
         <v>0</v>
@@ -12295,16 +12295,16 @@
         <v>267</v>
       </c>
       <c r="C362">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D362">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E362" t="s">
         <v>12</v>
       </c>
       <c r="F362" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G362">
         <v>0</v>
@@ -12327,16 +12327,16 @@
         <v>267</v>
       </c>
       <c r="C363">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D363">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E363" t="s">
         <v>12</v>
       </c>
       <c r="F363" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G363">
         <v>0</v>
@@ -12356,19 +12356,19 @@
         <v>2009</v>
       </c>
       <c r="B364">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C364">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D364">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E364" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F364" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G364">
         <v>0</v>
@@ -12380,7 +12380,7 @@
         <v>0</v>
       </c>
       <c r="J364" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.3">
@@ -12388,13 +12388,13 @@
         <v>2009</v>
       </c>
       <c r="B365">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="C365">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D365">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E365" t="s">
         <v>9</v>
@@ -12412,7 +12412,7 @@
         <v>0</v>
       </c>
       <c r="J365" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.3">
@@ -12420,19 +12420,19 @@
         <v>2009</v>
       </c>
       <c r="B366">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C366">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D366">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E366" t="s">
         <v>9</v>
       </c>
       <c r="F366" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G366">
         <v>0</v>
@@ -12455,16 +12455,16 @@
         <v>292</v>
       </c>
       <c r="C367">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D367">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E367" t="s">
         <v>9</v>
       </c>
       <c r="F367" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G367">
         <v>0</v>
@@ -12487,16 +12487,16 @@
         <v>292</v>
       </c>
       <c r="C368">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D368">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E368" t="s">
         <v>9</v>
       </c>
       <c r="F368" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G368">
         <v>0</v>
@@ -12516,13 +12516,13 @@
         <v>2009</v>
       </c>
       <c r="B369">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C369">
         <v>22</v>
       </c>
       <c r="D369">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E369" t="s">
         <v>9</v>
@@ -12551,7 +12551,7 @@
         <v>296</v>
       </c>
       <c r="C370">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D370">
         <v>30</v>
@@ -12560,7 +12560,7 @@
         <v>9</v>
       </c>
       <c r="F370" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G370">
         <v>0</v>
@@ -12580,19 +12580,19 @@
         <v>2009</v>
       </c>
       <c r="B371">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C371">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D371">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E371" t="s">
         <v>9</v>
       </c>
       <c r="F371" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G371">
         <v>0</v>
@@ -12618,13 +12618,13 @@
         <v>1</v>
       </c>
       <c r="D372">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E372" t="s">
         <v>9</v>
       </c>
       <c r="F372" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G372">
         <v>0</v>
@@ -12644,19 +12644,19 @@
         <v>2009</v>
       </c>
       <c r="B373">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="C373">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D373">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E373" t="s">
         <v>9</v>
       </c>
       <c r="F373" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G373">
         <v>0</v>
@@ -12668,7 +12668,7 @@
         <v>0</v>
       </c>
       <c r="J373" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
@@ -12679,10 +12679,10 @@
         <v>313</v>
       </c>
       <c r="C374">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D374">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E374" t="s">
         <v>9</v>
@@ -12700,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="J374" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.3">
@@ -12711,7 +12711,7 @@
         <v>313</v>
       </c>
       <c r="C375">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D375">
         <v>20</v>
@@ -12720,7 +12720,7 @@
         <v>9</v>
       </c>
       <c r="F375" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G375">
         <v>0</v>
@@ -12740,13 +12740,13 @@
         <v>2009</v>
       </c>
       <c r="B376">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C376">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D376">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E376" t="s">
         <v>9</v>
@@ -12778,13 +12778,13 @@
         <v>5</v>
       </c>
       <c r="D377">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E377" t="s">
         <v>9</v>
       </c>
       <c r="F377" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G377">
         <v>0</v>
@@ -12804,19 +12804,19 @@
         <v>2009</v>
       </c>
       <c r="B378">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C378">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D378">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E378" t="s">
         <v>9</v>
       </c>
       <c r="F378" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G378">
         <v>0</v>
@@ -12842,13 +12842,13 @@
         <v>6</v>
       </c>
       <c r="D379">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E379" t="s">
         <v>9</v>
       </c>
       <c r="F379" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G379">
         <v>0</v>
@@ -12868,19 +12868,19 @@
         <v>2009</v>
       </c>
       <c r="B380">
-        <v>355</v>
+        <v>313</v>
       </c>
       <c r="C380">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D380">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E380" t="s">
         <v>9</v>
       </c>
       <c r="F380" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G380">
         <v>0</v>
@@ -12903,16 +12903,16 @@
         <v>355</v>
       </c>
       <c r="C381">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D381">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E381" t="s">
         <v>9</v>
       </c>
       <c r="F381" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G381">
         <v>0</v>
@@ -12929,22 +12929,22 @@
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B382">
-        <v>3</v>
+        <v>355</v>
       </c>
       <c r="C382">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D382">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E382" t="s">
         <v>9</v>
       </c>
       <c r="F382" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G382">
         <v>0</v>
@@ -12970,13 +12970,13 @@
         <v>6</v>
       </c>
       <c r="D383">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E383" t="s">
         <v>9</v>
       </c>
       <c r="F383" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G383">
         <v>0</v>
@@ -12999,7 +12999,7 @@
         <v>3</v>
       </c>
       <c r="C384">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D384">
         <v>30</v>
@@ -13031,16 +13031,16 @@
         <v>3</v>
       </c>
       <c r="C385">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D385">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E385" t="s">
         <v>9</v>
       </c>
       <c r="F385" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G385">
         <v>0</v>
@@ -13060,13 +13060,13 @@
         <v>2010</v>
       </c>
       <c r="B386">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C386">
         <v>12</v>
       </c>
       <c r="D386">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E386" t="s">
         <v>9</v>
@@ -13098,13 +13098,13 @@
         <v>12</v>
       </c>
       <c r="D387">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E387" t="s">
         <v>9</v>
       </c>
       <c r="F387" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G387">
         <v>0</v>
@@ -13124,19 +13124,19 @@
         <v>2010</v>
       </c>
       <c r="B388">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C388">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D388">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E388" t="s">
         <v>9</v>
       </c>
       <c r="F388" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G388">
         <v>0</v>
@@ -13159,16 +13159,16 @@
         <v>32</v>
       </c>
       <c r="C389">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D389">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E389" t="s">
         <v>9</v>
       </c>
       <c r="F389" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G389">
         <v>0</v>
@@ -13191,16 +13191,16 @@
         <v>32</v>
       </c>
       <c r="C390">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D390">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E390" t="s">
         <v>9</v>
       </c>
       <c r="F390" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G390">
         <v>0</v>
@@ -13223,16 +13223,16 @@
         <v>32</v>
       </c>
       <c r="C391">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D391">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E391" t="s">
         <v>9</v>
       </c>
       <c r="F391" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G391">
         <v>0</v>
@@ -13252,14 +13252,14 @@
         <v>2010</v>
       </c>
       <c r="B392">
+        <v>32</v>
+      </c>
+      <c r="C392">
+        <v>22</v>
+      </c>
+      <c r="D392">
         <v>33</v>
       </c>
-      <c r="C392">
-        <v>21</v>
-      </c>
-      <c r="D392">
-        <v>45</v>
-      </c>
       <c r="E392" t="s">
         <v>9</v>
       </c>
@@ -13267,16 +13267,16 @@
         <v>11</v>
       </c>
       <c r="G392">
-        <v>-6.87</v>
+        <v>0</v>
       </c>
       <c r="H392">
-        <v>38.39</v>
+        <v>0</v>
       </c>
       <c r="I392">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="J392" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.3">
@@ -13284,10 +13284,10 @@
         <v>2010</v>
       </c>
       <c r="B393">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C393">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D393">
         <v>45</v>
@@ -13296,19 +13296,19 @@
         <v>9</v>
       </c>
       <c r="F393" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G393">
-        <v>0</v>
+        <v>-6.87</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>38.39</v>
       </c>
       <c r="I393">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="J393" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.3">
@@ -13319,16 +13319,16 @@
         <v>35</v>
       </c>
       <c r="C394">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D394">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E394" t="s">
         <v>9</v>
       </c>
       <c r="F394" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G394">
         <v>0</v>
@@ -13348,19 +13348,19 @@
         <v>2010</v>
       </c>
       <c r="B395">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C395">
         <v>22</v>
       </c>
       <c r="D395">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E395" t="s">
         <v>9</v>
       </c>
       <c r="F395" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G395">
         <v>0</v>
@@ -13383,7 +13383,7 @@
         <v>49</v>
       </c>
       <c r="C396">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D396">
         <v>0</v>
@@ -13392,7 +13392,7 @@
         <v>9</v>
       </c>
       <c r="F396" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G396">
         <v>0</v>
@@ -13412,10 +13412,10 @@
         <v>2010</v>
       </c>
       <c r="B397">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C397">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D397">
         <v>0</v>
@@ -13424,7 +13424,7 @@
         <v>9</v>
       </c>
       <c r="F397" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G397">
         <v>0</v>
@@ -13447,7 +13447,7 @@
         <v>70</v>
       </c>
       <c r="C398">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D398">
         <v>0</v>
@@ -13456,7 +13456,7 @@
         <v>9</v>
       </c>
       <c r="F398" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G398">
         <v>0</v>
@@ -13476,31 +13476,31 @@
         <v>2010</v>
       </c>
       <c r="B399">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C399">
         <v>13</v>
       </c>
       <c r="D399">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E399" t="s">
         <v>9</v>
       </c>
       <c r="F399" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G399">
-        <v>-13.27</v>
+        <v>0</v>
       </c>
       <c r="H399">
-        <v>37.42</v>
+        <v>0</v>
       </c>
       <c r="I399">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="J399" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.3">
@@ -13508,28 +13508,28 @@
         <v>2010</v>
       </c>
       <c r="B400">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C400">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D400">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E400" t="s">
         <v>9</v>
       </c>
       <c r="F400" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G400">
-        <v>-2.93</v>
+        <v>-13.27</v>
       </c>
       <c r="H400">
-        <v>36.32</v>
+        <v>37.42</v>
       </c>
       <c r="I400">
-        <v>0.4</v>
+        <v>1.02</v>
       </c>
       <c r="J400" t="s">
         <v>17</v>
@@ -13543,28 +13543,28 @@
         <v>85</v>
       </c>
       <c r="C401">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D401">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E401" t="s">
         <v>9</v>
       </c>
       <c r="F401" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G401">
-        <v>0</v>
+        <v>-2.93</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>36.32</v>
       </c>
       <c r="I401">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J401" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.3">
@@ -13575,16 +13575,16 @@
         <v>85</v>
       </c>
       <c r="C402">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D402">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E402" t="s">
         <v>9</v>
       </c>
       <c r="F402" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G402">
         <v>0</v>
@@ -13604,19 +13604,19 @@
         <v>2010</v>
       </c>
       <c r="B403">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C403">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D403">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E403" t="s">
         <v>9</v>
       </c>
       <c r="F403" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G403">
         <v>0</v>
@@ -13639,16 +13639,16 @@
         <v>88</v>
       </c>
       <c r="C404">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D404">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E404" t="s">
         <v>9</v>
       </c>
       <c r="F404" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G404">
         <v>0</v>
@@ -13668,13 +13668,13 @@
         <v>2010</v>
       </c>
       <c r="B405">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C405">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D405">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E405" t="s">
         <v>9</v>
@@ -13703,16 +13703,16 @@
         <v>101</v>
       </c>
       <c r="C406">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D406">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E406" t="s">
         <v>9</v>
       </c>
       <c r="F406" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G406">
         <v>0</v>
@@ -13738,13 +13738,13 @@
         <v>11</v>
       </c>
       <c r="D407">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="E407" t="s">
         <v>9</v>
       </c>
       <c r="F407" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G407">
         <v>0</v>
@@ -13767,16 +13767,16 @@
         <v>101</v>
       </c>
       <c r="C408">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D408">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="E408" t="s">
         <v>9</v>
       </c>
       <c r="F408" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G408">
         <v>0</v>
@@ -13802,13 +13802,13 @@
         <v>12</v>
       </c>
       <c r="D409">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E409" t="s">
         <v>9</v>
       </c>
       <c r="F409" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G409">
         <v>0</v>
@@ -13831,16 +13831,16 @@
         <v>101</v>
       </c>
       <c r="C410">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D410">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E410" t="s">
         <v>9</v>
       </c>
       <c r="F410" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G410">
         <v>0</v>
@@ -13860,19 +13860,19 @@
         <v>2010</v>
       </c>
       <c r="B411">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C411">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D411">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E411" t="s">
         <v>9</v>
       </c>
       <c r="F411" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G411">
         <v>0</v>
@@ -13895,16 +13895,16 @@
         <v>105</v>
       </c>
       <c r="C412">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D412">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E412" t="s">
         <v>9</v>
       </c>
       <c r="F412" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G412">
         <v>0</v>
@@ -13924,19 +13924,19 @@
         <v>2010</v>
       </c>
       <c r="B413">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C413">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D413">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E413" t="s">
         <v>9</v>
       </c>
       <c r="F413" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G413">
         <v>0</v>
@@ -13959,16 +13959,16 @@
         <v>106</v>
       </c>
       <c r="C414">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D414">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E414" t="s">
         <v>9</v>
       </c>
       <c r="F414" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G414">
         <v>0</v>
@@ -13988,19 +13988,19 @@
         <v>2010</v>
       </c>
       <c r="B415">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="C415">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D415">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E415" t="s">
         <v>9</v>
       </c>
       <c r="F415" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G415">
         <v>0</v>
@@ -14023,16 +14023,16 @@
         <v>162</v>
       </c>
       <c r="C416">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D416">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E416" t="s">
         <v>9</v>
       </c>
       <c r="F416" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G416">
         <v>0</v>
@@ -14055,16 +14055,16 @@
         <v>162</v>
       </c>
       <c r="C417">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D417">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E417" t="s">
         <v>9</v>
       </c>
       <c r="F417" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G417">
         <v>0</v>
@@ -14084,19 +14084,19 @@
         <v>2010</v>
       </c>
       <c r="B418">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C418">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D418">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E418" t="s">
         <v>9</v>
       </c>
       <c r="F418" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G418">
         <v>0</v>
@@ -14116,13 +14116,13 @@
         <v>2010</v>
       </c>
       <c r="B419">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C419">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D419">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E419" t="s">
         <v>9</v>
@@ -14151,16 +14151,16 @@
         <v>165</v>
       </c>
       <c r="C420">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D420">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E420" t="s">
         <v>9</v>
       </c>
       <c r="F420" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G420">
         <v>0</v>
@@ -14183,16 +14183,16 @@
         <v>165</v>
       </c>
       <c r="C421">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D421">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E421" t="s">
         <v>9</v>
       </c>
       <c r="F421" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G421">
         <v>0</v>
@@ -14215,16 +14215,16 @@
         <v>165</v>
       </c>
       <c r="C422">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D422">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E422" t="s">
         <v>9</v>
       </c>
       <c r="F422" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G422">
         <v>0</v>
@@ -14244,13 +14244,13 @@
         <v>2010</v>
       </c>
       <c r="B423">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C423">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D423">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E423" t="s">
         <v>9</v>
@@ -14279,16 +14279,16 @@
         <v>177</v>
       </c>
       <c r="C424">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D424">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E424" t="s">
         <v>9</v>
       </c>
       <c r="F424" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G424">
         <v>0</v>
@@ -14311,7 +14311,7 @@
         <v>177</v>
       </c>
       <c r="C425">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D425">
         <v>30</v>
@@ -14320,7 +14320,7 @@
         <v>9</v>
       </c>
       <c r="F425" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G425">
         <v>0</v>
@@ -14346,13 +14346,13 @@
         <v>9</v>
       </c>
       <c r="D426">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E426" t="s">
         <v>9</v>
       </c>
       <c r="F426" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G426">
         <v>0</v>
@@ -14378,13 +14378,13 @@
         <v>9</v>
       </c>
       <c r="D427">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E427" t="s">
         <v>9</v>
       </c>
       <c r="F427" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G427">
         <v>0</v>
@@ -14407,16 +14407,16 @@
         <v>177</v>
       </c>
       <c r="C428">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D428">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E428" t="s">
         <v>9</v>
       </c>
       <c r="F428" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G428">
         <v>0</v>
@@ -14439,28 +14439,28 @@
         <v>177</v>
       </c>
       <c r="C429">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D429">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E429" t="s">
         <v>9</v>
       </c>
       <c r="F429" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G429">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="H429">
-        <v>37.07</v>
+        <v>0</v>
       </c>
       <c r="I429">
-        <v>-5.97</v>
+        <v>0</v>
       </c>
       <c r="J429" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.3">
@@ -14468,13 +14468,13 @@
         <v>2010</v>
       </c>
       <c r="B430">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C430">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D430">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="E430" t="s">
         <v>9</v>
@@ -14483,16 +14483,16 @@
         <v>11</v>
       </c>
       <c r="G430">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>37.07</v>
       </c>
       <c r="I430">
-        <v>0</v>
+        <v>-5.97</v>
       </c>
       <c r="J430" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.3">
@@ -14503,16 +14503,16 @@
         <v>178</v>
       </c>
       <c r="C431">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D431">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E431" t="s">
         <v>9</v>
       </c>
       <c r="F431" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G431">
         <v>0</v>
@@ -14535,16 +14535,16 @@
         <v>178</v>
       </c>
       <c r="C432">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D432">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E432" t="s">
         <v>9</v>
       </c>
       <c r="F432" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G432">
         <v>0</v>
@@ -14570,13 +14570,13 @@
         <v>5</v>
       </c>
       <c r="D433">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E433" t="s">
         <v>9</v>
       </c>
       <c r="F433" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G433">
         <v>0</v>
@@ -14596,19 +14596,19 @@
         <v>2010</v>
       </c>
       <c r="B434">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C434">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D434">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E434" t="s">
         <v>9</v>
       </c>
       <c r="F434" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G434">
         <v>0</v>
@@ -14631,16 +14631,16 @@
         <v>180</v>
       </c>
       <c r="C435">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D435">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E435" t="s">
         <v>9</v>
       </c>
       <c r="F435" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G435">
         <v>0</v>
@@ -14663,16 +14663,16 @@
         <v>180</v>
       </c>
       <c r="C436">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D436">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E436" t="s">
         <v>9</v>
       </c>
       <c r="F436" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G436">
         <v>0</v>
@@ -14698,13 +14698,13 @@
         <v>2</v>
       </c>
       <c r="D437">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E437" t="s">
         <v>9</v>
       </c>
       <c r="F437" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G437">
         <v>0</v>
@@ -14727,16 +14727,16 @@
         <v>180</v>
       </c>
       <c r="C438">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D438">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E438" t="s">
         <v>9</v>
       </c>
       <c r="F438" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G438">
         <v>0</v>
@@ -14759,7 +14759,7 @@
         <v>180</v>
       </c>
       <c r="C439">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D439">
         <v>30</v>
@@ -14768,7 +14768,7 @@
         <v>9</v>
       </c>
       <c r="F439" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G439">
         <v>0</v>
@@ -14788,10 +14788,10 @@
         <v>2010</v>
       </c>
       <c r="B440">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C440">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D440">
         <v>30</v>
@@ -14800,7 +14800,7 @@
         <v>9</v>
       </c>
       <c r="F440" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G440">
         <v>0</v>
@@ -14812,7 +14812,7 @@
         <v>0</v>
       </c>
       <c r="J440" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.3">
@@ -14823,10 +14823,10 @@
         <v>181</v>
       </c>
       <c r="C441">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D441">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E441" t="s">
         <v>9</v>
@@ -14852,13 +14852,13 @@
         <v>2010</v>
       </c>
       <c r="B442">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C442">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D442">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E442" t="s">
         <v>9</v>
@@ -14876,7 +14876,7 @@
         <v>0</v>
       </c>
       <c r="J442" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.3">
@@ -14890,13 +14890,13 @@
         <v>20</v>
       </c>
       <c r="D443">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E443" t="s">
         <v>9</v>
       </c>
       <c r="F443" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G443">
         <v>0</v>
@@ -14916,13 +14916,13 @@
         <v>2010</v>
       </c>
       <c r="B444">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C444">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D444">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E444" t="s">
         <v>9</v>
@@ -14954,13 +14954,13 @@
         <v>4</v>
       </c>
       <c r="D445">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E445" t="s">
         <v>9</v>
       </c>
       <c r="F445" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G445">
         <v>0</v>
@@ -14980,19 +14980,19 @@
         <v>2010</v>
       </c>
       <c r="B446">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C446">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D446">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="E446" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F446" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G446">
         <v>0</v>
@@ -15018,13 +15018,13 @@
         <v>2</v>
       </c>
       <c r="D447">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E447" t="s">
         <v>12</v>
       </c>
       <c r="F447" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G447">
         <v>0</v>
@@ -15050,13 +15050,13 @@
         <v>2</v>
       </c>
       <c r="D448">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E448" t="s">
         <v>12</v>
       </c>
       <c r="F448" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G448">
         <v>0</v>
@@ -15079,16 +15079,16 @@
         <v>192</v>
       </c>
       <c r="C449">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D449">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E449" t="s">
         <v>12</v>
       </c>
       <c r="F449" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G449">
         <v>0</v>
@@ -15114,13 +15114,13 @@
         <v>3</v>
       </c>
       <c r="D450">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E450" t="s">
         <v>12</v>
       </c>
       <c r="F450" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G450">
         <v>0</v>
@@ -15146,13 +15146,13 @@
         <v>3</v>
       </c>
       <c r="D451">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E451" t="s">
         <v>12</v>
       </c>
       <c r="F451" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G451">
         <v>0</v>
@@ -15172,16 +15172,16 @@
         <v>2010</v>
       </c>
       <c r="B452">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C452">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D452">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E452" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F452" t="s">
         <v>11</v>
@@ -15210,13 +15210,13 @@
         <v>6</v>
       </c>
       <c r="D453">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E453" t="s">
         <v>9</v>
       </c>
       <c r="F453" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G453">
         <v>0</v>
@@ -15236,19 +15236,19 @@
         <v>2010</v>
       </c>
       <c r="B454">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C454">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D454">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E454" t="s">
         <v>9</v>
       </c>
       <c r="F454" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G454">
         <v>0</v>
@@ -15271,16 +15271,16 @@
         <v>195</v>
       </c>
       <c r="C455">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D455">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E455" t="s">
         <v>9</v>
       </c>
       <c r="F455" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G455">
         <v>0</v>
@@ -15300,19 +15300,19 @@
         <v>2010</v>
       </c>
       <c r="B456">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C456">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D456">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E456" t="s">
         <v>9</v>
       </c>
       <c r="F456" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G456">
         <v>0</v>
@@ -15338,13 +15338,13 @@
         <v>7</v>
       </c>
       <c r="D457">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="E457" t="s">
         <v>9</v>
       </c>
       <c r="F457" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G457">
         <v>0</v>
@@ -15367,16 +15367,16 @@
         <v>196</v>
       </c>
       <c r="C458">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D458">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E458" t="s">
         <v>9</v>
       </c>
       <c r="F458" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G458">
         <v>0</v>
@@ -15399,16 +15399,16 @@
         <v>196</v>
       </c>
       <c r="C459">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D459">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E459" t="s">
         <v>9</v>
       </c>
       <c r="F459" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G459">
         <v>0</v>
@@ -15428,13 +15428,13 @@
         <v>2010</v>
       </c>
       <c r="B460">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C460">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D460">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E460" t="s">
         <v>9</v>
@@ -15463,7 +15463,7 @@
         <v>199</v>
       </c>
       <c r="C461">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D461">
         <v>10</v>
@@ -15472,7 +15472,7 @@
         <v>9</v>
       </c>
       <c r="F461" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G461">
         <v>0</v>
@@ -15492,10 +15492,10 @@
         <v>2010</v>
       </c>
       <c r="B462">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C462">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D462">
         <v>10</v>
@@ -15527,16 +15527,16 @@
         <v>209</v>
       </c>
       <c r="C463">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D463">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E463" t="s">
         <v>9</v>
       </c>
       <c r="F463" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G463">
         <v>0</v>
@@ -15562,13 +15562,13 @@
         <v>4</v>
       </c>
       <c r="D464">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E464" t="s">
         <v>9</v>
       </c>
       <c r="F464" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G464">
         <v>0</v>
@@ -15591,16 +15591,16 @@
         <v>209</v>
       </c>
       <c r="C465">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D465">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E465" t="s">
         <v>9</v>
       </c>
       <c r="F465" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G465">
         <v>0</v>
@@ -15620,19 +15620,19 @@
         <v>2010</v>
       </c>
       <c r="B466">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C466">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D466">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E466" t="s">
         <v>9</v>
       </c>
       <c r="F466" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G466">
         <v>0</v>
@@ -15655,7 +15655,7 @@
         <v>211</v>
       </c>
       <c r="C467">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D467">
         <v>16</v>
@@ -15664,7 +15664,7 @@
         <v>9</v>
       </c>
       <c r="F467" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G467">
         <v>0</v>
@@ -15684,19 +15684,19 @@
         <v>2010</v>
       </c>
       <c r="B468">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C468">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D468">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E468" t="s">
         <v>9</v>
       </c>
       <c r="F468" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G468">
         <v>0</v>
@@ -15719,16 +15719,16 @@
         <v>212</v>
       </c>
       <c r="C469">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D469">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E469" t="s">
         <v>9</v>
       </c>
       <c r="F469" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G469">
         <v>0</v>
@@ -15751,16 +15751,16 @@
         <v>212</v>
       </c>
       <c r="C470">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D470">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E470" t="s">
         <v>9</v>
       </c>
       <c r="F470" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G470">
         <v>0</v>
@@ -15772,7 +15772,7 @@
         <v>0</v>
       </c>
       <c r="J470" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.3">
@@ -15780,13 +15780,13 @@
         <v>2010</v>
       </c>
       <c r="B471">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C471">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D471">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E471" t="s">
         <v>9</v>
@@ -15804,7 +15804,7 @@
         <v>0</v>
       </c>
       <c r="J471" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.3">
@@ -15812,19 +15812,19 @@
         <v>2010</v>
       </c>
       <c r="B472">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C472">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D472">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E472" t="s">
         <v>9</v>
       </c>
       <c r="F472" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G472">
         <v>0</v>
@@ -15847,10 +15847,10 @@
         <v>220</v>
       </c>
       <c r="C473">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D473">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E473" t="s">
         <v>9</v>
@@ -15876,19 +15876,19 @@
         <v>2010</v>
       </c>
       <c r="B474">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C474">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D474">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E474" t="s">
         <v>9</v>
       </c>
       <c r="F474" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G474">
         <v>0</v>
@@ -15908,19 +15908,19 @@
         <v>2010</v>
       </c>
       <c r="B475">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="C475">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D475">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E475" t="s">
         <v>9</v>
       </c>
       <c r="F475" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G475">
         <v>0</v>
@@ -15943,16 +15943,16 @@
         <v>238</v>
       </c>
       <c r="C476">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D476">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E476" t="s">
         <v>9</v>
       </c>
       <c r="F476" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G476">
         <v>0</v>
@@ -15978,13 +15978,13 @@
         <v>4</v>
       </c>
       <c r="D477">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E477" t="s">
         <v>9</v>
       </c>
       <c r="F477" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G477">
         <v>0</v>
@@ -16010,13 +16010,13 @@
         <v>4</v>
       </c>
       <c r="D478">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E478" t="s">
         <v>9</v>
       </c>
       <c r="F478" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G478">
         <v>0</v>
@@ -16036,19 +16036,19 @@
         <v>2010</v>
       </c>
       <c r="B479">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C479">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D479">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E479" t="s">
         <v>9</v>
       </c>
       <c r="F479" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G479">
         <v>0</v>
@@ -16071,16 +16071,16 @@
         <v>249</v>
       </c>
       <c r="C480">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D480">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E480" t="s">
         <v>9</v>
       </c>
       <c r="F480" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G480">
         <v>0</v>
@@ -16100,13 +16100,13 @@
         <v>2010</v>
       </c>
       <c r="B481">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C481">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D481">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E481" t="s">
         <v>9</v>
@@ -16138,13 +16138,13 @@
         <v>18</v>
       </c>
       <c r="D482">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="E482" t="s">
         <v>9</v>
       </c>
       <c r="F482" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G482">
         <v>0</v>
@@ -16164,13 +16164,13 @@
         <v>2010</v>
       </c>
       <c r="B483">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C483">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D483">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E483" t="s">
         <v>9</v>
@@ -16179,16 +16179,16 @@
         <v>10</v>
       </c>
       <c r="G483">
-        <v>-3.78</v>
+        <v>0</v>
       </c>
       <c r="H483">
-        <v>43.33</v>
+        <v>0</v>
       </c>
       <c r="I483">
-        <v>-1.56</v>
+        <v>0</v>
       </c>
       <c r="J483" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.3">
@@ -16199,10 +16199,10 @@
         <v>255</v>
       </c>
       <c r="C484">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D484">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E484" t="s">
         <v>9</v>
@@ -16211,16 +16211,16 @@
         <v>10</v>
       </c>
       <c r="G484">
-        <v>0</v>
+        <v>-3.78</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>43.33</v>
       </c>
       <c r="I484">
-        <v>0</v>
+        <v>-1.56</v>
       </c>
       <c r="J484" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.3">
@@ -16231,16 +16231,16 @@
         <v>255</v>
       </c>
       <c r="C485">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D485">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E485" t="s">
         <v>9</v>
       </c>
       <c r="F485" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G485">
         <v>0</v>
@@ -16263,16 +16263,16 @@
         <v>255</v>
       </c>
       <c r="C486">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D486">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E486" t="s">
         <v>9</v>
       </c>
       <c r="F486" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G486">
         <v>0</v>
@@ -16298,13 +16298,13 @@
         <v>23</v>
       </c>
       <c r="D487">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E487" t="s">
         <v>9</v>
       </c>
       <c r="F487" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G487">
         <v>0</v>
@@ -16324,19 +16324,19 @@
         <v>2010</v>
       </c>
       <c r="B488">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C488">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D488">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E488" t="s">
         <v>9</v>
       </c>
       <c r="F488" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G488">
         <v>0</v>
@@ -16359,16 +16359,16 @@
         <v>257</v>
       </c>
       <c r="C489">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D489">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E489" t="s">
         <v>9</v>
       </c>
       <c r="F489" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G489">
         <v>0</v>
@@ -16388,13 +16388,13 @@
         <v>2010</v>
       </c>
       <c r="B490">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C490">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D490">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E490" t="s">
         <v>9</v>
@@ -16423,16 +16423,16 @@
         <v>259</v>
       </c>
       <c r="C491">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D491">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E491" t="s">
         <v>9</v>
       </c>
       <c r="F491" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G491">
         <v>0</v>
@@ -16452,13 +16452,13 @@
         <v>2010</v>
       </c>
       <c r="B492">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C492">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D492">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E492" t="s">
         <v>9</v>
@@ -16490,13 +16490,13 @@
         <v>4</v>
       </c>
       <c r="D493">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E493" t="s">
         <v>9</v>
       </c>
       <c r="F493" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G493">
         <v>0</v>
@@ -16519,16 +16519,16 @@
         <v>271</v>
       </c>
       <c r="C494">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D494">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E494" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F494" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G494">
         <v>0</v>
@@ -16551,16 +16551,16 @@
         <v>271</v>
       </c>
       <c r="C495">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D495">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E495" t="s">
         <v>12</v>
       </c>
       <c r="F495" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G495">
         <v>0</v>
@@ -16580,31 +16580,31 @@
         <v>2010</v>
       </c>
       <c r="B496">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C496">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D496">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E496" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F496" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G496">
-        <v>-2.21</v>
+        <v>0</v>
       </c>
       <c r="H496">
-        <v>46.17</v>
+        <v>0</v>
       </c>
       <c r="I496">
-        <v>-1.02</v>
+        <v>0</v>
       </c>
       <c r="J496" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.3">
@@ -16612,31 +16612,31 @@
         <v>2010</v>
       </c>
       <c r="B497">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C497">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D497">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E497" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F497" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G497">
-        <v>0</v>
+        <v>-2.21</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>46.17</v>
       </c>
       <c r="I497">
-        <v>0</v>
+        <v>-1.02</v>
       </c>
       <c r="J497" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.3">
@@ -16650,13 +16650,13 @@
         <v>0</v>
       </c>
       <c r="D498">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E498" t="s">
         <v>9</v>
       </c>
       <c r="F498" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G498">
         <v>0</v>
@@ -16676,19 +16676,19 @@
         <v>2010</v>
       </c>
       <c r="B499">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="C499">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D499">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E499" t="s">
         <v>9</v>
       </c>
       <c r="F499" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G499">
         <v>0</v>
@@ -16711,16 +16711,16 @@
         <v>292</v>
       </c>
       <c r="C500">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D500">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E500" t="s">
         <v>9</v>
       </c>
       <c r="F500" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G500">
         <v>0</v>
@@ -16743,16 +16743,16 @@
         <v>292</v>
       </c>
       <c r="C501">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D501">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E501" t="s">
         <v>9</v>
       </c>
       <c r="F501" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G501">
         <v>0</v>
@@ -16775,16 +16775,16 @@
         <v>292</v>
       </c>
       <c r="C502">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D502">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E502" t="s">
         <v>9</v>
       </c>
       <c r="F502" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G502">
         <v>0</v>
@@ -16807,16 +16807,16 @@
         <v>292</v>
       </c>
       <c r="C503">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D503">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E503" t="s">
         <v>9</v>
       </c>
       <c r="F503" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G503">
         <v>0</v>
@@ -16839,7 +16839,7 @@
         <v>292</v>
       </c>
       <c r="C504">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D504">
         <v>40</v>
@@ -16848,7 +16848,7 @@
         <v>9</v>
       </c>
       <c r="F504" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G504">
         <v>0</v>
@@ -16868,19 +16868,19 @@
         <v>2010</v>
       </c>
       <c r="B505">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C505">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D505">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E505" t="s">
         <v>9</v>
       </c>
       <c r="F505" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G505">
         <v>0</v>
@@ -16903,16 +16903,16 @@
         <v>293</v>
       </c>
       <c r="C506">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D506">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E506" t="s">
         <v>9</v>
       </c>
       <c r="F506" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G506">
         <v>0</v>
@@ -16932,19 +16932,19 @@
         <v>2010</v>
       </c>
       <c r="B507">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C507">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D507">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E507" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F507" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G507">
         <v>0</v>
@@ -16967,16 +16967,16 @@
         <v>298</v>
       </c>
       <c r="C508">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D508">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E508" t="s">
         <v>12</v>
       </c>
       <c r="F508" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G508">
         <v>0</v>
@@ -16999,16 +16999,16 @@
         <v>298</v>
       </c>
       <c r="C509">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D509">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E509" t="s">
         <v>12</v>
       </c>
       <c r="F509" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G509">
         <v>0</v>
@@ -17031,16 +17031,16 @@
         <v>298</v>
       </c>
       <c r="C510">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D510">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E510" t="s">
         <v>12</v>
       </c>
       <c r="F510" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G510">
         <v>0</v>
@@ -17060,31 +17060,31 @@
         <v>2010</v>
       </c>
       <c r="B511">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C511">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D511">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E511" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F511" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G511">
-        <v>-9.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="H511">
-        <v>48.22</v>
+        <v>0</v>
       </c>
       <c r="I511">
-        <v>-0.68</v>
+        <v>0</v>
       </c>
       <c r="J511" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.3">
@@ -17095,28 +17095,28 @@
         <v>302</v>
       </c>
       <c r="C512">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D512">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="E512" t="s">
         <v>9</v>
       </c>
       <c r="F512" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G512">
-        <v>0</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>48.22</v>
       </c>
       <c r="I512">
-        <v>0</v>
+        <v>-0.68</v>
       </c>
       <c r="J512" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="513" spans="1:10" x14ac:dyDescent="0.3">
@@ -17127,16 +17127,16 @@
         <v>302</v>
       </c>
       <c r="C513">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D513">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E513" t="s">
         <v>9</v>
       </c>
       <c r="F513" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G513">
         <v>0</v>
@@ -17156,13 +17156,13 @@
         <v>2010</v>
       </c>
       <c r="B514">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="C514">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D514">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E514" t="s">
         <v>9</v>
@@ -17191,16 +17191,16 @@
         <v>325</v>
       </c>
       <c r="C515">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D515">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="E515" t="s">
         <v>9</v>
       </c>
       <c r="F515" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G515">
         <v>0</v>
@@ -17220,31 +17220,31 @@
         <v>2010</v>
       </c>
       <c r="B516">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C516">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D516">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E516" t="s">
         <v>9</v>
       </c>
       <c r="F516" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G516">
-        <v>-7.29</v>
+        <v>0</v>
       </c>
       <c r="H516">
-        <v>42.95</v>
+        <v>0</v>
       </c>
       <c r="I516">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="J516" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="517" spans="1:10" x14ac:dyDescent="0.3">
@@ -17252,13 +17252,13 @@
         <v>2010</v>
       </c>
       <c r="B517">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C517">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D517">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E517" t="s">
         <v>9</v>
@@ -17267,13 +17267,13 @@
         <v>10</v>
       </c>
       <c r="G517">
-        <v>0</v>
+        <v>-7.29</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>42.95</v>
       </c>
       <c r="I517">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="J517" t="s">
         <v>17</v>
@@ -17284,13 +17284,13 @@
         <v>2010</v>
       </c>
       <c r="B518">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="C518">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D518">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E518" t="s">
         <v>9</v>
@@ -17308,7 +17308,7 @@
         <v>0</v>
       </c>
       <c r="J518" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.3">
@@ -17322,13 +17322,13 @@
         <v>0</v>
       </c>
       <c r="D519">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E519" t="s">
         <v>9</v>
       </c>
       <c r="F519" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G519">
         <v>0</v>
@@ -17348,13 +17348,13 @@
         <v>2010</v>
       </c>
       <c r="B520">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C520">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D520">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E520" t="s">
         <v>9</v>
@@ -17386,13 +17386,13 @@
         <v>10</v>
       </c>
       <c r="D521">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E521" t="s">
         <v>9</v>
       </c>
       <c r="F521" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G521">
         <v>0</v>
@@ -17415,16 +17415,16 @@
         <v>358</v>
       </c>
       <c r="C522">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D522">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="E522" t="s">
         <v>9</v>
       </c>
       <c r="F522" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G522">
         <v>0</v>
@@ -17450,13 +17450,13 @@
         <v>11</v>
       </c>
       <c r="D523">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E523" t="s">
         <v>9</v>
       </c>
       <c r="F523" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G523">
         <v>0</v>
@@ -17479,16 +17479,16 @@
         <v>358</v>
       </c>
       <c r="C524">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D524">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E524" t="s">
         <v>9</v>
       </c>
       <c r="F524" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G524">
         <v>0</v>
@@ -17514,13 +17514,13 @@
         <v>20</v>
       </c>
       <c r="D525">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E525" t="s">
         <v>9</v>
       </c>
       <c r="F525" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G525">
         <v>0</v>
@@ -17546,13 +17546,13 @@
         <v>20</v>
       </c>
       <c r="D526">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="E526" t="s">
         <v>9</v>
       </c>
       <c r="F526" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G526">
         <v>0</v>
@@ -17578,13 +17578,13 @@
         <v>20</v>
       </c>
       <c r="D527">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E527" t="s">
         <v>9</v>
       </c>
       <c r="F527" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G527">
         <v>0</v>
@@ -17604,13 +17604,13 @@
         <v>2010</v>
       </c>
       <c r="B528">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C528">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D528">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E528" t="s">
         <v>9</v>
@@ -17642,13 +17642,13 @@
         <v>9</v>
       </c>
       <c r="D529">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E529" t="s">
         <v>9</v>
       </c>
       <c r="F529" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G529">
         <v>0</v>
@@ -17671,16 +17671,16 @@
         <v>359</v>
       </c>
       <c r="C530">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D530">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E530" t="s">
         <v>9</v>
       </c>
       <c r="F530" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G530">
         <v>0</v>
@@ -17692,7 +17692,7 @@
         <v>0</v>
       </c>
       <c r="J530" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="531" spans="1:10" x14ac:dyDescent="0.3">
@@ -17700,19 +17700,19 @@
         <v>2010</v>
       </c>
       <c r="B531">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C531">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D531">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E531" t="s">
         <v>9</v>
       </c>
       <c r="F531" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G531">
         <v>0</v>
@@ -17724,7 +17724,7 @@
         <v>0</v>
       </c>
       <c r="J531" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.3">
@@ -17735,16 +17735,16 @@
         <v>360</v>
       </c>
       <c r="C532">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D532">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E532" t="s">
         <v>9</v>
       </c>
       <c r="F532" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G532">
         <v>0</v>
@@ -17764,19 +17764,19 @@
         <v>2010</v>
       </c>
       <c r="B533">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C533">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D533">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E533" t="s">
         <v>9</v>
       </c>
       <c r="F533" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G533">
         <v>0</v>
@@ -17799,16 +17799,16 @@
         <v>361</v>
       </c>
       <c r="C534">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D534">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E534" t="s">
         <v>9</v>
       </c>
       <c r="F534" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G534">
         <v>0</v>
@@ -17825,16 +17825,16 @@
     </row>
     <row r="535" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A535">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B535">
-        <v>2</v>
+        <v>361</v>
       </c>
       <c r="C535">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D535">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E535" t="s">
         <v>9</v>
@@ -17852,7 +17852,7 @@
         <v>0</v>
       </c>
       <c r="J535" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.3">
@@ -17860,19 +17860,19 @@
         <v>2011</v>
       </c>
       <c r="B536">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C536">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D536">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E536" t="s">
         <v>9</v>
       </c>
       <c r="F536" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G536">
         <v>0</v>
@@ -17884,7 +17884,7 @@
         <v>0</v>
       </c>
       <c r="J536" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="537" spans="1:10" x14ac:dyDescent="0.3">
@@ -17895,16 +17895,16 @@
         <v>3</v>
       </c>
       <c r="C537">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D537">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E537" t="s">
         <v>9</v>
       </c>
       <c r="F537" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G537">
         <v>0</v>
@@ -17924,19 +17924,19 @@
         <v>2011</v>
       </c>
       <c r="B538">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C538">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D538">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E538" t="s">
         <v>9</v>
       </c>
       <c r="F538" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G538">
         <v>0</v>
@@ -17959,7 +17959,7 @@
         <v>4</v>
       </c>
       <c r="C539">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D539">
         <v>33</v>
@@ -17968,7 +17968,7 @@
         <v>9</v>
       </c>
       <c r="F539" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G539">
         <v>0</v>
@@ -17991,16 +17991,16 @@
         <v>4</v>
       </c>
       <c r="C540">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D540">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E540" t="s">
         <v>9</v>
       </c>
       <c r="F540" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G540">
         <v>0</v>
@@ -18026,13 +18026,13 @@
         <v>8</v>
       </c>
       <c r="D541">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E541" t="s">
         <v>9</v>
       </c>
       <c r="F541" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G541">
         <v>0</v>
@@ -18058,13 +18058,13 @@
         <v>8</v>
       </c>
       <c r="D542">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E542" t="s">
         <v>9</v>
       </c>
       <c r="F542" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G542">
         <v>0</v>
@@ -18090,13 +18090,13 @@
         <v>8</v>
       </c>
       <c r="D543">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E543" t="s">
         <v>9</v>
       </c>
       <c r="F543" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G543">
         <v>0</v>
@@ -18116,13 +18116,13 @@
         <v>2011</v>
       </c>
       <c r="B544">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C544">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D544">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E544" t="s">
         <v>9</v>
@@ -18151,16 +18151,16 @@
         <v>14</v>
       </c>
       <c r="C545">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D545">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E545" t="s">
         <v>9</v>
       </c>
       <c r="F545" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G545">
         <v>0</v>
@@ -18186,13 +18186,13 @@
         <v>21</v>
       </c>
       <c r="D546">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E546" t="s">
         <v>9</v>
       </c>
       <c r="F546" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G546">
         <v>0</v>
@@ -18215,16 +18215,16 @@
         <v>14</v>
       </c>
       <c r="C547">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D547">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E547" t="s">
         <v>9</v>
       </c>
       <c r="F547" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G547">
         <v>0</v>
@@ -18244,19 +18244,19 @@
         <v>2011</v>
       </c>
       <c r="B548">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C548">
+        <v>22</v>
+      </c>
+      <c r="D548">
         <v>6</v>
       </c>
-      <c r="D548">
-        <v>15</v>
-      </c>
       <c r="E548" t="s">
         <v>9</v>
       </c>
       <c r="F548" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G548">
         <v>0</v>
@@ -18282,13 +18282,13 @@
         <v>6</v>
       </c>
       <c r="D549">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E549" t="s">
         <v>9</v>
       </c>
       <c r="F549" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G549">
         <v>0</v>
@@ -18308,16 +18308,16 @@
         <v>2011</v>
       </c>
       <c r="B550">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C550">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D550">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E550" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F550" t="s">
         <v>11</v>
@@ -18343,16 +18343,16 @@
         <v>20</v>
       </c>
       <c r="C551">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D551">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E551" t="s">
         <v>12</v>
       </c>
       <c r="F551" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G551">
         <v>0</v>
@@ -18372,16 +18372,16 @@
         <v>2011</v>
       </c>
       <c r="B552">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C552">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D552">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E552" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F552" t="s">
         <v>10</v>
@@ -18407,16 +18407,16 @@
         <v>36</v>
       </c>
       <c r="C553">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D553">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E553" t="s">
         <v>9</v>
       </c>
       <c r="F553" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G553">
         <v>0</v>
@@ -18436,13 +18436,13 @@
         <v>2011</v>
       </c>
       <c r="B554">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C554">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D554">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="E554" t="s">
         <v>9</v>
@@ -18471,16 +18471,16 @@
         <v>37</v>
       </c>
       <c r="C555">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D555">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E555" t="s">
         <v>9</v>
       </c>
       <c r="F555" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G555">
         <v>0</v>
@@ -18503,16 +18503,16 @@
         <v>37</v>
       </c>
       <c r="C556">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D556">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E556" t="s">
         <v>9</v>
       </c>
       <c r="F556" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G556">
         <v>0</v>
@@ -18538,13 +18538,13 @@
         <v>20</v>
       </c>
       <c r="D557">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E557" t="s">
         <v>9</v>
       </c>
       <c r="F557" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G557">
         <v>0</v>
@@ -18564,19 +18564,19 @@
         <v>2011</v>
       </c>
       <c r="B558">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C558">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D558">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E558" t="s">
         <v>9</v>
       </c>
       <c r="F558" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G558">
         <v>0</v>
@@ -18599,16 +18599,16 @@
         <v>38</v>
       </c>
       <c r="C559">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D559">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E559" t="s">
         <v>9</v>
       </c>
       <c r="F559" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G559">
         <v>0</v>
@@ -18631,16 +18631,16 @@
         <v>38</v>
       </c>
       <c r="C560">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D560">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E560" t="s">
         <v>9</v>
       </c>
       <c r="F560" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G560">
         <v>0</v>
@@ -18663,16 +18663,16 @@
         <v>38</v>
       </c>
       <c r="C561">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D561">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E561" t="s">
         <v>9</v>
       </c>
       <c r="F561" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G561">
         <v>0</v>
@@ -18695,16 +18695,16 @@
         <v>38</v>
       </c>
       <c r="C562">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D562">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E562" t="s">
         <v>9</v>
       </c>
       <c r="F562" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G562">
         <v>0</v>
@@ -18727,16 +18727,16 @@
         <v>38</v>
       </c>
       <c r="C563">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D563">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="E563" t="s">
         <v>9</v>
       </c>
       <c r="F563" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G563">
         <v>0</v>
@@ -18756,13 +18756,13 @@
         <v>2011</v>
       </c>
       <c r="B564">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C564">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D564">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E564" t="s">
         <v>9</v>
@@ -18771,16 +18771,16 @@
         <v>10</v>
       </c>
       <c r="G564">
-        <v>-3.59</v>
+        <v>0</v>
       </c>
       <c r="H564">
-        <v>43.94</v>
+        <v>0</v>
       </c>
       <c r="I564">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="J564" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="565" spans="1:10" x14ac:dyDescent="0.3">
@@ -18791,28 +18791,28 @@
         <v>42</v>
       </c>
       <c r="C565">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D565">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E565" t="s">
         <v>9</v>
       </c>
       <c r="F565" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G565">
-        <v>0</v>
+        <v>-3.59</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>43.94</v>
       </c>
       <c r="I565">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="J565" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="566" spans="1:10" x14ac:dyDescent="0.3">
@@ -18823,16 +18823,16 @@
         <v>42</v>
       </c>
       <c r="C566">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D566">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E566" t="s">
         <v>9</v>
       </c>
       <c r="F566" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G566">
         <v>0</v>
@@ -18852,31 +18852,31 @@
         <v>2011</v>
       </c>
       <c r="B567">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C567">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D567">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E567" t="s">
         <v>9</v>
       </c>
       <c r="F567" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G567">
-        <v>-6.46</v>
+        <v>0</v>
       </c>
       <c r="H567">
-        <v>42.32</v>
+        <v>0</v>
       </c>
       <c r="I567">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="J567" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="568" spans="1:10" x14ac:dyDescent="0.3">
@@ -18884,31 +18884,31 @@
         <v>2011</v>
       </c>
       <c r="B568">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C568">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D568">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E568" t="s">
         <v>9</v>
       </c>
       <c r="F568" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G568">
-        <v>0</v>
+        <v>-6.46</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>42.32</v>
       </c>
       <c r="I568">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="J568" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="569" spans="1:10" x14ac:dyDescent="0.3">
@@ -18919,16 +18919,16 @@
         <v>53</v>
       </c>
       <c r="C569">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D569">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E569" t="s">
         <v>9</v>
       </c>
       <c r="F569" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G569">
         <v>0</v>
@@ -18948,31 +18948,31 @@
         <v>2011</v>
       </c>
       <c r="B570">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C570">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D570">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E570" t="s">
         <v>9</v>
       </c>
       <c r="F570" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G570">
-        <v>18.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="H570">
-        <v>21.38</v>
+        <v>0</v>
       </c>
       <c r="I570">
-        <v>-2.6</v>
+        <v>0</v>
       </c>
       <c r="J570" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="571" spans="1:10" x14ac:dyDescent="0.3">
@@ -18980,28 +18980,28 @@
         <v>2011</v>
       </c>
       <c r="B571">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C571">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D571">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E571" t="s">
         <v>9</v>
       </c>
       <c r="F571" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G571">
-        <v>0</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>21.38</v>
       </c>
       <c r="I571">
-        <v>0</v>
+        <v>-2.6</v>
       </c>
       <c r="J571" t="s">
         <v>17</v>
@@ -19012,19 +19012,19 @@
         <v>2011</v>
       </c>
       <c r="B572">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C572">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D572">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E572" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F572" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G572">
         <v>0</v>
@@ -19036,7 +19036,7 @@
         <v>0</v>
       </c>
       <c r="J572" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="573" spans="1:10" x14ac:dyDescent="0.3">
@@ -19050,13 +19050,13 @@
         <v>23</v>
       </c>
       <c r="D573">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E573" t="s">
         <v>12</v>
       </c>
       <c r="F573" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G573">
         <v>0</v>
@@ -19076,19 +19076,19 @@
         <v>2011</v>
       </c>
       <c r="B574">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C574">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D574">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E574" t="s">
         <v>12</v>
       </c>
       <c r="F574" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G574">
         <v>0</v>
@@ -19111,16 +19111,16 @@
         <v>63</v>
       </c>
       <c r="C575">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D575">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E575" t="s">
         <v>12</v>
       </c>
       <c r="F575" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G575">
         <v>0</v>
@@ -19140,16 +19140,16 @@
         <v>2011</v>
       </c>
       <c r="B576">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C576">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D576">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E576" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F576" t="s">
         <v>11</v>
@@ -19164,7 +19164,7 @@
         <v>0</v>
       </c>
       <c r="J576" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="577" spans="1:10" x14ac:dyDescent="0.3">
@@ -19175,16 +19175,16 @@
         <v>70</v>
       </c>
       <c r="C577">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D577">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E577" t="s">
         <v>9</v>
       </c>
       <c r="F577" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G577">
         <v>0</v>
@@ -19196,7 +19196,7 @@
         <v>0</v>
       </c>
       <c r="J577" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="578" spans="1:10" x14ac:dyDescent="0.3">
@@ -19210,13 +19210,13 @@
         <v>10</v>
       </c>
       <c r="D578">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E578" t="s">
         <v>9</v>
       </c>
       <c r="F578" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G578">
         <v>0</v>
@@ -19236,13 +19236,13 @@
         <v>2011</v>
       </c>
       <c r="B579">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C579">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D579">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E579" t="s">
         <v>9</v>
@@ -19271,16 +19271,16 @@
         <v>71</v>
       </c>
       <c r="C580">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D580">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E580" t="s">
         <v>9</v>
       </c>
       <c r="F580" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G580">
         <v>0</v>
@@ -19300,19 +19300,19 @@
         <v>2011</v>
       </c>
       <c r="B581">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C581">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D581">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E581" t="s">
         <v>9</v>
       </c>
       <c r="F581" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G581">
         <v>0</v>
@@ -19338,13 +19338,13 @@
         <v>16</v>
       </c>
       <c r="D582">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E582" t="s">
         <v>9</v>
       </c>
       <c r="F582" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G582">
         <v>0</v>
@@ -19367,16 +19367,16 @@
         <v>82</v>
       </c>
       <c r="C583">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D583">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="E583" t="s">
         <v>9</v>
       </c>
       <c r="F583" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G583">
         <v>0</v>
@@ -19399,16 +19399,16 @@
         <v>82</v>
       </c>
       <c r="C584">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D584">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E584" t="s">
         <v>9</v>
       </c>
       <c r="F584" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G584">
         <v>0</v>
@@ -19428,19 +19428,19 @@
         <v>2011</v>
       </c>
       <c r="B585">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C585">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D585">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E585" t="s">
         <v>9</v>
       </c>
       <c r="F585" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G585">
         <v>0</v>
@@ -19466,13 +19466,13 @@
         <v>12</v>
       </c>
       <c r="D586">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E586" t="s">
         <v>9</v>
       </c>
       <c r="F586" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G586">
         <v>0</v>
@@ -19495,16 +19495,16 @@
         <v>83</v>
       </c>
       <c r="C587">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D587">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="E587" t="s">
         <v>9</v>
       </c>
       <c r="F587" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G587">
         <v>0</v>
@@ -19530,13 +19530,13 @@
         <v>13</v>
       </c>
       <c r="D588">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E588" t="s">
         <v>9</v>
       </c>
       <c r="F588" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G588">
         <v>0</v>
@@ -19559,16 +19559,16 @@
         <v>83</v>
       </c>
       <c r="C589">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D589">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E589" t="s">
         <v>9</v>
       </c>
       <c r="F589" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G589">
         <v>0</v>
@@ -19591,16 +19591,16 @@
         <v>83</v>
       </c>
       <c r="C590">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D590">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E590" t="s">
         <v>9</v>
       </c>
       <c r="F590" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G590">
         <v>0</v>
@@ -19620,19 +19620,19 @@
         <v>2011</v>
       </c>
       <c r="B591">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C591">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D591">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E591" t="s">
         <v>9</v>
       </c>
       <c r="F591" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G591">
         <v>0</v>
@@ -19655,16 +19655,16 @@
         <v>84</v>
       </c>
       <c r="C592">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D592">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E592" t="s">
         <v>9</v>
       </c>
       <c r="F592" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G592">
         <v>0</v>
@@ -19687,16 +19687,16 @@
         <v>84</v>
       </c>
       <c r="C593">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D593">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E593" t="s">
         <v>9</v>
       </c>
       <c r="F593" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G593">
         <v>0</v>
@@ -19722,13 +19722,13 @@
         <v>9</v>
       </c>
       <c r="D594">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="E594" t="s">
         <v>9</v>
       </c>
       <c r="F594" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G594">
         <v>0</v>
@@ -19751,16 +19751,16 @@
         <v>84</v>
       </c>
       <c r="C595">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D595">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E595" t="s">
         <v>9</v>
       </c>
       <c r="F595" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G595">
         <v>0</v>
@@ -19783,16 +19783,16 @@
         <v>84</v>
       </c>
       <c r="C596">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D596">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E596" t="s">
         <v>9</v>
       </c>
       <c r="F596" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G596">
         <v>0</v>
@@ -19815,16 +19815,16 @@
         <v>84</v>
       </c>
       <c r="C597">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D597">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E597" t="s">
         <v>9</v>
       </c>
       <c r="F597" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G597">
         <v>0</v>
@@ -19844,19 +19844,19 @@
         <v>2011</v>
       </c>
       <c r="B598">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C598">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D598">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E598" t="s">
         <v>9</v>
       </c>
       <c r="F598" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G598">
         <v>0</v>
@@ -19879,16 +19879,16 @@
         <v>85</v>
       </c>
       <c r="C599">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D599">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E599" t="s">
         <v>9</v>
       </c>
       <c r="F599" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G599">
         <v>0</v>
@@ -19911,16 +19911,16 @@
         <v>85</v>
       </c>
       <c r="C600">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D600">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E600" t="s">
         <v>9</v>
       </c>
       <c r="F600" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G600">
         <v>0</v>
@@ -19943,16 +19943,16 @@
         <v>85</v>
       </c>
       <c r="C601">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D601">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E601" t="s">
         <v>9</v>
       </c>
       <c r="F601" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G601">
         <v>0</v>
@@ -19975,16 +19975,16 @@
         <v>85</v>
       </c>
       <c r="C602">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D602">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E602" t="s">
         <v>9</v>
       </c>
       <c r="F602" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G602">
         <v>0</v>
@@ -20007,7 +20007,7 @@
         <v>85</v>
       </c>
       <c r="C603">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D603">
         <v>10</v>
@@ -20016,7 +20016,7 @@
         <v>9</v>
       </c>
       <c r="F603" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G603">
         <v>0</v>
@@ -20042,13 +20042,13 @@
         <v>16</v>
       </c>
       <c r="D604">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E604" t="s">
         <v>9</v>
       </c>
       <c r="F604" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G604">
         <v>0</v>
@@ -20071,16 +20071,16 @@
         <v>85</v>
       </c>
       <c r="C605">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D605">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E605" t="s">
         <v>9</v>
       </c>
       <c r="F605" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G605">
         <v>0</v>
@@ -20103,16 +20103,16 @@
         <v>85</v>
       </c>
       <c r="C606">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D606">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E606" t="s">
         <v>9</v>
       </c>
       <c r="F606" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G606">
         <v>0</v>
@@ -20135,16 +20135,16 @@
         <v>85</v>
       </c>
       <c r="C607">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D607">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E607" t="s">
         <v>9</v>
       </c>
       <c r="F607" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G607">
         <v>0</v>
@@ -20164,19 +20164,19 @@
         <v>2011</v>
       </c>
       <c r="B608">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C608">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D608">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E608" t="s">
         <v>9</v>
       </c>
       <c r="F608" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G608">
         <v>0</v>
@@ -20199,16 +20199,16 @@
         <v>86</v>
       </c>
       <c r="C609">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D609">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E609" t="s">
         <v>9</v>
       </c>
       <c r="F609" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G609">
         <v>0</v>
@@ -20228,19 +20228,19 @@
         <v>2011</v>
       </c>
       <c r="B610">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C610">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D610">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E610" t="s">
         <v>9</v>
       </c>
       <c r="F610" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G610">
         <v>0</v>
@@ -20260,13 +20260,13 @@
         <v>2011</v>
       </c>
       <c r="B611">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C611">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D611">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E611" t="s">
         <v>9</v>
@@ -20295,16 +20295,16 @@
         <v>111</v>
       </c>
       <c r="C612">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D612">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E612" t="s">
         <v>9</v>
       </c>
       <c r="F612" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G612">
         <v>0</v>
@@ -20327,16 +20327,16 @@
         <v>111</v>
       </c>
       <c r="C613">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D613">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E613" t="s">
         <v>9</v>
       </c>
       <c r="F613" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G613">
         <v>0</v>
@@ -20359,16 +20359,16 @@
         <v>111</v>
       </c>
       <c r="C614">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D614">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E614" t="s">
         <v>9</v>
       </c>
       <c r="F614" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G614">
         <v>0</v>
@@ -20388,19 +20388,19 @@
         <v>2011</v>
       </c>
       <c r="B615">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C615">
         <v>10</v>
       </c>
       <c r="D615">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E615" t="s">
         <v>9</v>
       </c>
       <c r="F615" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G615">
         <v>0</v>
@@ -20423,16 +20423,16 @@
         <v>112</v>
       </c>
       <c r="C616">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D616">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E616" t="s">
         <v>9</v>
       </c>
       <c r="F616" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G616">
         <v>0</v>
@@ -20452,16 +20452,16 @@
         <v>2011</v>
       </c>
       <c r="B617">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C617">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D617">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E617" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F617" t="s">
         <v>11</v>
@@ -20490,13 +20490,13 @@
         <v>11</v>
       </c>
       <c r="D618">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E618" t="s">
         <v>12</v>
       </c>
       <c r="F618" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G618">
         <v>0</v>
@@ -20516,19 +20516,19 @@
         <v>2011</v>
       </c>
       <c r="B619">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C619">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D619">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E619" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F619" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G619">
         <v>0</v>
@@ -20551,16 +20551,16 @@
         <v>122</v>
       </c>
       <c r="C620">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D620">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E620" t="s">
         <v>9</v>
       </c>
       <c r="F620" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G620">
         <v>0</v>
@@ -20583,16 +20583,16 @@
         <v>122</v>
       </c>
       <c r="C621">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D621">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E621" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F621" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G621">
         <v>0</v>
@@ -20618,13 +20618,13 @@
         <v>11</v>
       </c>
       <c r="D622">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E622" t="s">
         <v>12</v>
       </c>
       <c r="F622" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G622">
         <v>0</v>
@@ -20644,19 +20644,19 @@
         <v>2011</v>
       </c>
       <c r="B623">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C623">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D623">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E623" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F623" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G623">
         <v>0</v>
@@ -20679,16 +20679,16 @@
         <v>124</v>
       </c>
       <c r="C624">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D624">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E624" t="s">
         <v>9</v>
       </c>
       <c r="F624" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G624">
         <v>0</v>
@@ -20714,13 +20714,13 @@
         <v>18</v>
       </c>
       <c r="D625">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="E625" t="s">
         <v>9</v>
       </c>
       <c r="F625" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G625">
         <v>0</v>
@@ -20743,16 +20743,16 @@
         <v>124</v>
       </c>
       <c r="C626">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D626">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E626" t="s">
         <v>9</v>
       </c>
       <c r="F626" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G626">
         <v>0</v>
@@ -20778,13 +20778,13 @@
         <v>19</v>
       </c>
       <c r="D627">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E627" t="s">
         <v>9</v>
       </c>
       <c r="F627" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G627">
         <v>0</v>
@@ -20807,16 +20807,16 @@
         <v>124</v>
       </c>
       <c r="C628">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D628">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E628" t="s">
         <v>9</v>
       </c>
       <c r="F628" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G628">
         <v>0</v>
@@ -20839,16 +20839,16 @@
         <v>124</v>
       </c>
       <c r="C629">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D629">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E629" t="s">
         <v>9</v>
       </c>
       <c r="F629" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G629">
         <v>0</v>
@@ -20871,16 +20871,16 @@
         <v>124</v>
       </c>
       <c r="C630">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D630">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E630" t="s">
         <v>9</v>
       </c>
       <c r="F630" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G630">
         <v>0</v>
@@ -20906,13 +20906,13 @@
         <v>22</v>
       </c>
       <c r="D631">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E631" t="s">
         <v>9</v>
       </c>
       <c r="F631" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G631">
         <v>0</v>
@@ -20935,16 +20935,16 @@
         <v>124</v>
       </c>
       <c r="C632">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D632">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E632" t="s">
         <v>9</v>
       </c>
       <c r="F632" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G632">
         <v>0</v>
@@ -20964,19 +20964,19 @@
         <v>2011</v>
       </c>
       <c r="B633">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C633">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D633">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E633" t="s">
         <v>9</v>
       </c>
       <c r="F633" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G633">
         <v>0</v>
@@ -20999,16 +20999,16 @@
         <v>125</v>
       </c>
       <c r="C634">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D634">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E634" t="s">
         <v>9</v>
       </c>
       <c r="F634" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G634">
         <v>0</v>
@@ -21028,13 +21028,13 @@
         <v>2011</v>
       </c>
       <c r="B635">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C635">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D635">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E635" t="s">
         <v>9</v>
@@ -21063,16 +21063,16 @@
         <v>126</v>
       </c>
       <c r="C636">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D636">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E636" t="s">
         <v>9</v>
       </c>
       <c r="F636" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G636">
         <v>0</v>
@@ -21095,16 +21095,16 @@
         <v>126</v>
       </c>
       <c r="C637">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D637">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E637" t="s">
         <v>9</v>
       </c>
       <c r="F637" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G637">
         <v>0</v>
@@ -21127,16 +21127,16 @@
         <v>126</v>
       </c>
       <c r="C638">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D638">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E638" t="s">
         <v>9</v>
       </c>
       <c r="F638" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G638">
         <v>0</v>
@@ -21162,13 +21162,13 @@
         <v>5</v>
       </c>
       <c r="D639">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E639" t="s">
         <v>9</v>
       </c>
       <c r="F639" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G639">
         <v>0</v>
@@ -21194,13 +21194,13 @@
         <v>5</v>
       </c>
       <c r="D640">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E640" t="s">
         <v>9</v>
       </c>
       <c r="F640" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G640">
         <v>0</v>
@@ -21226,13 +21226,13 @@
         <v>5</v>
       </c>
       <c r="D641">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E641" t="s">
         <v>9</v>
       </c>
       <c r="F641" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G641">
         <v>0</v>
@@ -21255,16 +21255,16 @@
         <v>126</v>
       </c>
       <c r="C642">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D642">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E642" t="s">
         <v>9</v>
       </c>
       <c r="F642" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G642">
         <v>0</v>
@@ -21284,31 +21284,31 @@
         <v>2011</v>
       </c>
       <c r="B643">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C643">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D643">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E643" t="s">
         <v>9</v>
       </c>
       <c r="F643" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G643">
-        <v>19.57</v>
+        <v>0</v>
       </c>
       <c r="H643">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="I643">
-        <v>-3.25</v>
+        <v>0</v>
       </c>
       <c r="J643" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="644" spans="1:10" x14ac:dyDescent="0.3">
@@ -21316,13 +21316,13 @@
         <v>2011</v>
       </c>
       <c r="B644">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C644">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D644">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E644" t="s">
         <v>9</v>
@@ -21331,16 +21331,16 @@
         <v>10</v>
       </c>
       <c r="G644">
-        <v>0</v>
+        <v>19.57</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="I644">
-        <v>0</v>
+        <v>-3.25</v>
       </c>
       <c r="J644" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="645" spans="1:10" x14ac:dyDescent="0.3">
@@ -21354,13 +21354,13 @@
         <v>4</v>
       </c>
       <c r="D645">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E645" t="s">
         <v>9</v>
       </c>
       <c r="F645" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G645">
         <v>0</v>
@@ -21383,16 +21383,16 @@
         <v>133</v>
       </c>
       <c r="C646">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D646">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E646" t="s">
         <v>9</v>
       </c>
       <c r="F646" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G646">
         <v>0</v>
@@ -21415,16 +21415,16 @@
         <v>133</v>
       </c>
       <c r="C647">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D647">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E647" t="s">
         <v>9</v>
       </c>
       <c r="F647" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G647">
         <v>0</v>
@@ -21450,13 +21450,13 @@
         <v>16</v>
       </c>
       <c r="D648">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E648" t="s">
         <v>9</v>
       </c>
       <c r="F648" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G648">
         <v>0</v>
@@ -21479,16 +21479,16 @@
         <v>133</v>
       </c>
       <c r="C649">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D649">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E649" t="s">
         <v>9</v>
       </c>
       <c r="F649" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G649">
         <v>0</v>
@@ -21511,16 +21511,16 @@
         <v>133</v>
       </c>
       <c r="C650">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D650">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E650" t="s">
         <v>9</v>
       </c>
       <c r="F650" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G650">
         <v>0</v>
@@ -21540,19 +21540,19 @@
         <v>2011</v>
       </c>
       <c r="B651">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C651">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D651">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E651" t="s">
         <v>9</v>
       </c>
       <c r="F651" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G651">
         <v>0</v>
@@ -21575,16 +21575,16 @@
         <v>134</v>
       </c>
       <c r="C652">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D652">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E652" t="s">
         <v>9</v>
       </c>
       <c r="F652" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G652">
         <v>0</v>
@@ -21607,16 +21607,16 @@
         <v>134</v>
       </c>
       <c r="C653">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D653">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E653" t="s">
         <v>9</v>
       </c>
       <c r="F653" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G653">
         <v>0</v>
@@ -21639,16 +21639,16 @@
         <v>134</v>
       </c>
       <c r="C654">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D654">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E654" t="s">
         <v>9</v>
       </c>
       <c r="F654" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G654">
         <v>0</v>
@@ -21671,16 +21671,16 @@
         <v>134</v>
       </c>
       <c r="C655">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D655">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="E655" t="s">
         <v>9</v>
       </c>
       <c r="F655" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G655">
         <v>0</v>
@@ -21700,19 +21700,19 @@
         <v>2011</v>
       </c>
       <c r="B656">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="C656">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D656">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E656" t="s">
         <v>9</v>
       </c>
       <c r="F656" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G656">
         <v>0</v>
@@ -21735,16 +21735,16 @@
         <v>165</v>
       </c>
       <c r="C657">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D657">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E657" t="s">
         <v>9</v>
       </c>
       <c r="F657" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G657">
         <v>0</v>
@@ -21770,13 +21770,13 @@
         <v>15</v>
       </c>
       <c r="D658">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E658" t="s">
         <v>9</v>
       </c>
       <c r="F658" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G658">
         <v>0</v>
@@ -21799,16 +21799,16 @@
         <v>165</v>
       </c>
       <c r="C659">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D659">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E659" t="s">
         <v>9</v>
       </c>
       <c r="F659" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G659">
         <v>0</v>
@@ -21831,16 +21831,16 @@
         <v>165</v>
       </c>
       <c r="C660">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D660">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E660" t="s">
         <v>9</v>
       </c>
       <c r="F660" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G660">
         <v>0</v>
@@ -21863,16 +21863,16 @@
         <v>165</v>
       </c>
       <c r="C661">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D661">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E661" t="s">
         <v>9</v>
       </c>
       <c r="F661" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G661">
         <v>0</v>
@@ -21889,22 +21889,22 @@
     </row>
     <row r="662" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A662">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B662">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="C662">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D662">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E662" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F662" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G662">
         <v>0</v>
@@ -21924,19 +21924,19 @@
         <v>2012</v>
       </c>
       <c r="B663">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C663">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D663">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="E663" t="s">
         <v>12</v>
       </c>
       <c r="F663" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G663">
         <v>0</v>
@@ -21956,19 +21956,19 @@
         <v>2012</v>
       </c>
       <c r="B664">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C664">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D664">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="E664" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F664" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G664">
         <v>0</v>
@@ -21991,16 +21991,16 @@
         <v>90</v>
       </c>
       <c r="C665">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D665">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E665" t="s">
         <v>9</v>
       </c>
       <c r="F665" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G665">
         <v>0</v>
@@ -22026,13 +22026,13 @@
         <v>19</v>
       </c>
       <c r="D666">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E666" t="s">
         <v>9</v>
       </c>
       <c r="F666" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G666">
         <v>0</v>
@@ -22055,16 +22055,16 @@
         <v>90</v>
       </c>
       <c r="C667">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D667">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E667" t="s">
         <v>9</v>
       </c>
       <c r="F667" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G667">
         <v>0</v>
@@ -22087,16 +22087,16 @@
         <v>90</v>
       </c>
       <c r="C668">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D668">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E668" t="s">
         <v>9</v>
       </c>
       <c r="F668" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G668">
         <v>0</v>
@@ -22119,16 +22119,16 @@
         <v>90</v>
       </c>
       <c r="C669">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D669">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E669" t="s">
         <v>9</v>
       </c>
       <c r="F669" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G669">
         <v>0</v>
@@ -22148,19 +22148,19 @@
         <v>2012</v>
       </c>
       <c r="B670">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C670">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D670">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E670" t="s">
         <v>9</v>
       </c>
       <c r="F670" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G670">
         <v>0</v>
@@ -22180,19 +22180,19 @@
         <v>2012</v>
       </c>
       <c r="B671">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C671">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D671">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E671" t="s">
         <v>9</v>
       </c>
       <c r="F671" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G671">
         <v>0</v>
@@ -22215,16 +22215,16 @@
         <v>102</v>
       </c>
       <c r="C672">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D672">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E672" t="s">
         <v>9</v>
       </c>
       <c r="F672" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G672">
         <v>0</v>
@@ -22250,13 +22250,13 @@
         <v>5</v>
       </c>
       <c r="D673">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E673" t="s">
         <v>9</v>
       </c>
       <c r="F673" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G673">
         <v>0</v>
@@ -22279,16 +22279,16 @@
         <v>102</v>
       </c>
       <c r="C674">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D674">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E674" t="s">
         <v>9</v>
       </c>
       <c r="F674" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G674">
         <v>0</v>
@@ -22311,16 +22311,16 @@
         <v>102</v>
       </c>
       <c r="C675">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D675">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E675" t="s">
         <v>9</v>
       </c>
       <c r="F675" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G675">
         <v>0</v>
@@ -22343,16 +22343,16 @@
         <v>102</v>
       </c>
       <c r="C676">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D676">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E676" t="s">
         <v>9</v>
       </c>
       <c r="F676" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G676">
         <v>0</v>
@@ -22375,16 +22375,16 @@
         <v>102</v>
       </c>
       <c r="C677">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D677">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E677" t="s">
         <v>9</v>
       </c>
       <c r="F677" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G677">
         <v>0</v>
@@ -22407,16 +22407,16 @@
         <v>102</v>
       </c>
       <c r="C678">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D678">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E678" t="s">
         <v>9</v>
       </c>
       <c r="F678" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G678">
         <v>0</v>
@@ -22439,16 +22439,16 @@
         <v>102</v>
       </c>
       <c r="C679">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D679">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E679" t="s">
         <v>9</v>
       </c>
       <c r="F679" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G679">
         <v>0</v>
@@ -22468,19 +22468,19 @@
         <v>2012</v>
       </c>
       <c r="B680">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C680">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D680">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E680" t="s">
         <v>9</v>
       </c>
       <c r="F680" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G680">
         <v>0</v>
@@ -22503,16 +22503,16 @@
         <v>115</v>
       </c>
       <c r="C681">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D681">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E681" t="s">
         <v>9</v>
       </c>
       <c r="F681" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G681">
         <v>0</v>
@@ -22532,19 +22532,19 @@
         <v>2012</v>
       </c>
       <c r="B682">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C682">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D682">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E682" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F682" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G682">
         <v>0</v>
@@ -22567,16 +22567,16 @@
         <v>127</v>
       </c>
       <c r="C683">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D683">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E683" t="s">
         <v>12</v>
       </c>
       <c r="F683" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G683">
         <v>0</v>
@@ -22599,16 +22599,16 @@
         <v>127</v>
       </c>
       <c r="C684">
+        <v>15</v>
+      </c>
+      <c r="D684">
         <v>20</v>
-      </c>
-      <c r="D684">
-        <v>24</v>
       </c>
       <c r="E684" t="s">
         <v>12</v>
       </c>
       <c r="F684" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G684">
         <v>0</v>
@@ -22634,13 +22634,13 @@
         <v>20</v>
       </c>
       <c r="D685">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E685" t="s">
         <v>12</v>
       </c>
       <c r="F685" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G685">
         <v>0</v>
@@ -22666,13 +22666,13 @@
         <v>20</v>
       </c>
       <c r="D686">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E686" t="s">
         <v>12</v>
       </c>
       <c r="F686" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G686">
         <v>0</v>
@@ -22698,13 +22698,13 @@
         <v>20</v>
       </c>
       <c r="D687">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E687" t="s">
         <v>12</v>
       </c>
       <c r="F687" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G687">
         <v>0</v>
@@ -22724,19 +22724,19 @@
         <v>2012</v>
       </c>
       <c r="B688">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C688">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D688">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E688" t="s">
         <v>12</v>
       </c>
       <c r="F688" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G688">
         <v>0</v>
@@ -22759,16 +22759,16 @@
         <v>128</v>
       </c>
       <c r="C689">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D689">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E689" t="s">
         <v>12</v>
       </c>
       <c r="F689" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G689">
         <v>0</v>
@@ -22788,19 +22788,19 @@
         <v>2012</v>
       </c>
       <c r="B690">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C690">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D690">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E690" t="s">
         <v>12</v>
       </c>
       <c r="F690" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G690">
         <v>0</v>
@@ -22823,16 +22823,16 @@
         <v>134</v>
       </c>
       <c r="C691">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D691">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E691" t="s">
         <v>12</v>
       </c>
       <c r="F691" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G691">
         <v>0</v>
@@ -22852,31 +22852,31 @@
         <v>2012</v>
       </c>
       <c r="B692">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C692">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D692">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E692" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F692" t="s">
         <v>11</v>
       </c>
       <c r="G692">
-        <v>9.41</v>
+        <v>0</v>
       </c>
       <c r="H692">
-        <v>33.520000000000003</v>
+        <v>0</v>
       </c>
       <c r="I692">
-        <v>-2.19</v>
+        <v>0</v>
       </c>
       <c r="J692" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="693" spans="1:10" x14ac:dyDescent="0.3">
@@ -22884,13 +22884,13 @@
         <v>2012</v>
       </c>
       <c r="B693">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C693">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D693">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E693" t="s">
         <v>9</v>
@@ -22899,16 +22899,16 @@
         <v>11</v>
       </c>
       <c r="G693">
-        <v>0</v>
+        <v>9.41</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="I693">
-        <v>0</v>
+        <v>-2.19</v>
       </c>
       <c r="J693" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="694" spans="1:10" x14ac:dyDescent="0.3">
@@ -22919,16 +22919,16 @@
         <v>137</v>
       </c>
       <c r="C694">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D694">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E694" t="s">
         <v>9</v>
       </c>
       <c r="F694" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G694">
         <v>0</v>
@@ -22948,19 +22948,19 @@
         <v>2012</v>
       </c>
       <c r="B695">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C695">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D695">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E695" t="s">
         <v>9</v>
       </c>
       <c r="F695" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G695">
         <v>0</v>
@@ -22983,16 +22983,16 @@
         <v>138</v>
       </c>
       <c r="C696">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D696">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E696" t="s">
         <v>9</v>
       </c>
       <c r="F696" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G696">
         <v>0</v>
@@ -23012,13 +23012,13 @@
         <v>2012</v>
       </c>
       <c r="B697">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C697">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D697">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E697" t="s">
         <v>9</v>
@@ -23036,7 +23036,7 @@
         <v>0</v>
       </c>
       <c r="J697" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="698" spans="1:10" x14ac:dyDescent="0.3">
@@ -23047,10 +23047,10 @@
         <v>145</v>
       </c>
       <c r="C698">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D698">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E698" t="s">
         <v>9</v>
@@ -23076,19 +23076,19 @@
         <v>2012</v>
       </c>
       <c r="B699">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C699">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D699">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E699" t="s">
         <v>9</v>
       </c>
       <c r="F699" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G699">
         <v>0</v>
@@ -23100,7 +23100,7 @@
         <v>0</v>
       </c>
       <c r="J699" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="700" spans="1:10" x14ac:dyDescent="0.3">
@@ -23111,7 +23111,7 @@
         <v>148</v>
       </c>
       <c r="C700">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D700">
         <v>30</v>
@@ -23120,7 +23120,7 @@
         <v>9</v>
       </c>
       <c r="F700" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G700">
         <v>0</v>
@@ -23143,16 +23143,16 @@
         <v>148</v>
       </c>
       <c r="C701">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D701">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E701" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F701" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G701">
         <v>0</v>
@@ -23178,13 +23178,13 @@
         <v>23</v>
       </c>
       <c r="D702">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E702" t="s">
         <v>12</v>
       </c>
       <c r="F702" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G702">
         <v>0</v>
@@ -23204,19 +23204,19 @@
         <v>2012</v>
       </c>
       <c r="B703">
-        <v>277</v>
+        <v>148</v>
       </c>
       <c r="C703">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D703">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E703" t="s">
         <v>12</v>
       </c>
       <c r="F703" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G703">
         <v>0</v>
@@ -23239,16 +23239,16 @@
         <v>277</v>
       </c>
       <c r="C704">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D704">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E704" t="s">
         <v>12</v>
       </c>
       <c r="F704" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G704">
         <v>0</v>
@@ -23265,19 +23265,19 @@
     </row>
     <row r="705" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A705">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B705">
-        <v>11</v>
+        <v>277</v>
       </c>
       <c r="C705">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D705">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E705" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F705" t="s">
         <v>10</v>
@@ -23303,16 +23303,16 @@
         <v>11</v>
       </c>
       <c r="C706">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D706">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E706" t="s">
         <v>9</v>
       </c>
       <c r="F706" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G706">
         <v>0</v>
@@ -23335,16 +23335,16 @@
         <v>11</v>
       </c>
       <c r="C707">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D707">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E707" t="s">
         <v>9</v>
       </c>
       <c r="F707" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G707">
         <v>0</v>
@@ -23364,19 +23364,19 @@
         <v>2013</v>
       </c>
       <c r="B708">
+        <v>11</v>
+      </c>
+      <c r="C708">
         <v>12</v>
       </c>
-      <c r="C708">
-        <v>7</v>
-      </c>
       <c r="D708">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E708" t="s">
         <v>9</v>
       </c>
       <c r="F708" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G708">
         <v>0</v>
@@ -23399,16 +23399,16 @@
         <v>12</v>
       </c>
       <c r="C709">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D709">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E709" t="s">
         <v>9</v>
       </c>
       <c r="F709" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G709">
         <v>0</v>
@@ -23431,16 +23431,16 @@
         <v>12</v>
       </c>
       <c r="C710">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D710">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E710" t="s">
         <v>9</v>
       </c>
       <c r="F710" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G710">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>2013</v>
       </c>
       <c r="B711">
+        <v>12</v>
+      </c>
+      <c r="C711">
         <v>13</v>
       </c>
-      <c r="C711">
-        <v>15</v>
-      </c>
       <c r="D711">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E711" t="s">
         <v>9</v>
       </c>
       <c r="F711" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G711">
         <v>0</v>
@@ -23495,16 +23495,16 @@
         <v>13</v>
       </c>
       <c r="C712">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D712">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E712" t="s">
         <v>9</v>
       </c>
       <c r="F712" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G712">
         <v>0</v>
@@ -23524,19 +23524,19 @@
         <v>2013</v>
       </c>
       <c r="B713">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C713">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D713">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E713" t="s">
         <v>9</v>
       </c>
       <c r="F713" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G713">
         <v>0</v>
@@ -23559,16 +23559,16 @@
         <v>14</v>
       </c>
       <c r="C714">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D714">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E714" t="s">
         <v>9</v>
       </c>
       <c r="F714" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G714">
         <v>0</v>
@@ -23591,16 +23591,16 @@
         <v>14</v>
       </c>
       <c r="C715">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D715">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E715" t="s">
         <v>9</v>
       </c>
       <c r="F715" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G715">
         <v>0</v>
@@ -23623,16 +23623,16 @@
         <v>14</v>
       </c>
       <c r="C716">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D716">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="E716" t="s">
         <v>9</v>
       </c>
       <c r="F716" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G716">
         <v>0</v>
@@ -23649,19 +23649,19 @@
     </row>
     <row r="717" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A717">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B717">
-        <v>322</v>
+        <v>14</v>
       </c>
       <c r="C717">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D717">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E717" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F717" t="s">
         <v>11</v>
@@ -23684,19 +23684,19 @@
         <v>2014</v>
       </c>
       <c r="B718">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C718">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D718">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E718" t="s">
         <v>12</v>
       </c>
       <c r="F718" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G718">
         <v>0</v>
@@ -23713,22 +23713,22 @@
     </row>
     <row r="719" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A719">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B719">
-        <v>68</v>
+        <v>326</v>
       </c>
       <c r="C719">
+        <v>1</v>
+      </c>
+      <c r="D719">
+        <v>23</v>
+      </c>
+      <c r="E719" t="s">
         <v>12</v>
       </c>
-      <c r="D719">
-        <v>19</v>
-      </c>
-      <c r="E719" t="s">
-        <v>13</v>
-      </c>
       <c r="F719" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G719">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="J719" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="720" spans="1:10" x14ac:dyDescent="0.3">
@@ -23748,19 +23748,19 @@
         <v>2016</v>
       </c>
       <c r="B720">
-        <v>242</v>
+        <v>68</v>
       </c>
       <c r="C720">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D720">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E720" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F720" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G720">
         <v>0</v>
@@ -23780,16 +23780,16 @@
         <v>2016</v>
       </c>
       <c r="B721">
-        <v>152</v>
+        <v>242</v>
       </c>
       <c r="C721">
+        <v>11</v>
+      </c>
+      <c r="D721">
         <v>15</v>
       </c>
-      <c r="D721">
-        <v>22</v>
-      </c>
       <c r="E721" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F721" t="s">
         <v>10</v>
@@ -23812,13 +23812,13 @@
         <v>2016</v>
       </c>
       <c r="B722">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C722">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D722">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E722" t="s">
         <v>12</v>
@@ -23847,16 +23847,16 @@
         <v>153</v>
       </c>
       <c r="C723">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D723">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E723" t="s">
         <v>12</v>
       </c>
       <c r="F723" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G723">
         <v>0</v>
@@ -23876,19 +23876,19 @@
         <v>2016</v>
       </c>
       <c r="B724">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C724">
         <v>11</v>
       </c>
       <c r="D724">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E724" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F724" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G724">
         <v>0</v>
@@ -23900,7 +23900,7 @@
         <v>0</v>
       </c>
       <c r="J724" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="725" spans="1:10" x14ac:dyDescent="0.3">
@@ -23911,27 +23911,59 @@
         <v>155</v>
       </c>
       <c r="C725">
+        <v>11</v>
+      </c>
+      <c r="D725">
+        <v>5</v>
+      </c>
+      <c r="E725" t="s">
+        <v>9</v>
+      </c>
+      <c r="F725" t="s">
+        <v>10</v>
+      </c>
+      <c r="G725">
+        <v>0</v>
+      </c>
+      <c r="H725">
+        <v>0</v>
+      </c>
+      <c r="I725">
+        <v>0</v>
+      </c>
+      <c r="J725" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="726" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A726">
+        <v>2016</v>
+      </c>
+      <c r="B726">
+        <v>155</v>
+      </c>
+      <c r="C726">
         <v>12</v>
       </c>
-      <c r="D725">
+      <c r="D726">
         <v>52</v>
       </c>
-      <c r="E725" t="s">
-        <v>9</v>
-      </c>
-      <c r="F725" t="s">
-        <v>11</v>
-      </c>
-      <c r="G725">
-        <v>0</v>
-      </c>
-      <c r="H725">
-        <v>0</v>
-      </c>
-      <c r="I725">
-        <v>0</v>
-      </c>
-      <c r="J725" t="s">
+      <c r="E726" t="s">
+        <v>9</v>
+      </c>
+      <c r="F726" t="s">
+        <v>11</v>
+      </c>
+      <c r="G726">
+        <v>0</v>
+      </c>
+      <c r="H726">
+        <v>0</v>
+      </c>
+      <c r="I726">
+        <v>0</v>
+      </c>
+      <c r="J726" t="s">
         <v>18</v>
       </c>
     </row>
